--- a/data/Yting_260321_20210326-103027/Ratios.xlsx
+++ b/data/Yting_260321_20210326-103027/Ratios.xlsx
@@ -415,17 +415,17 @@
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="23.7109375" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" customWidth="1"/>
     <col min="17" max="17" width="22.7109375" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" customWidth="1"/>
@@ -497,684 +497,684 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2">
-        <v>-105.543252184767</v>
+        <v>-105.6004059644875</v>
       </c>
       <c r="B2">
         <v>0.001522748921522226</v>
       </c>
       <c r="C2">
-        <v>0.01033884581771135</v>
+        <v>0.01023542238374481</v>
       </c>
       <c r="D2">
-        <v>2.500104217627813</v>
+        <v>2.525366425064601</v>
       </c>
       <c r="E2">
-        <v>0.007165398358242347</v>
+        <v>0.007165735470860413</v>
       </c>
       <c r="F2">
-        <v>0.01478933245368997</v>
+        <v>0.01478863668832112</v>
       </c>
       <c r="G2">
-        <v>2.732032438034333</v>
+        <v>2.732165266071587</v>
       </c>
       <c r="H2">
-        <v>0.0231703806893276</v>
+        <v>0.02316925422885041</v>
       </c>
       <c r="I2">
-        <v>1.789684977792535</v>
+        <v>1.808951687183812</v>
       </c>
       <c r="J2">
-        <v>2.604203802875942</v>
+        <v>2.576467054448028</v>
       </c>
       <c r="K2">
-        <v>0.006779213643547647</v>
+        <v>0.006778780467003105</v>
       </c>
       <c r="L2">
-        <v>0.1702428792942347</v>
+        <v>0.1702537581274621</v>
       </c>
       <c r="M2">
-        <v>4.916713429368548E-05</v>
+        <v>4.916399262409689E-05</v>
       </c>
       <c r="N2">
-        <v>0.1702428792942349</v>
+        <v>0.1702537581274623</v>
       </c>
       <c r="O2">
-        <v>1.318828763693015</v>
+        <v>1.318240643972384</v>
       </c>
       <c r="P2">
-        <v>0.5334996389483724</v>
+        <v>0.5337376544124303</v>
       </c>
       <c r="Q2">
-        <v>0.1702371670050599</v>
+        <v>0.1702167991392523</v>
       </c>
       <c r="R2">
-        <v>1.612895259779135</v>
+        <v>1.613088256207097</v>
       </c>
       <c r="S2">
-        <v>0.2241705192850406</v>
+        <v>0.2230016042121955</v>
       </c>
       <c r="T2">
-        <v>1.549838513005388</v>
+        <v>1.55796235410836</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3">
-        <v>0.8844531054512661</v>
+        <v>0.1774019644116276</v>
       </c>
       <c r="B3">
         <v>0.002107527865453386</v>
       </c>
       <c r="C3">
-        <v>0.01001464435336744</v>
+        <v>0.01023651243346234</v>
       </c>
       <c r="D3">
-        <v>3.988986395410593</v>
+        <v>3.9025283601347</v>
       </c>
       <c r="E3">
-        <v>0.007159443268110569</v>
+        <v>0.007151741669928597</v>
       </c>
       <c r="F3">
-        <v>0.2433412122966173</v>
+        <v>0.243603262622918</v>
       </c>
       <c r="G3">
-        <v>0.2087949818774892</v>
+        <v>0.2056506777876824</v>
       </c>
       <c r="H3">
-        <v>2.784202105567774</v>
+        <v>2.826771272669783</v>
       </c>
       <c r="I3">
-        <v>0.157989250425516</v>
+        <v>0.1561259601382454</v>
       </c>
       <c r="J3">
-        <v>2.214395630898379</v>
+        <v>2.240823406699239</v>
       </c>
       <c r="K3">
-        <v>0.007585844208432104</v>
+        <v>0.007580485368271605</v>
       </c>
       <c r="L3">
-        <v>0.2105665503060151</v>
+        <v>0.2107154052185198</v>
       </c>
       <c r="M3">
-        <v>5.501732804688176E-05</v>
+        <v>5.49784623571892E-05</v>
       </c>
       <c r="N3">
-        <v>0.2105665503060163</v>
+        <v>0.2107154052185211</v>
       </c>
       <c r="O3">
-        <v>0.03525242983938701</v>
+        <v>0.03604320149520462</v>
       </c>
       <c r="P3">
-        <v>5.704968934028837</v>
+        <v>5.579804477398916</v>
       </c>
       <c r="Q3">
-        <v>0.3294613250209388</v>
+        <v>0.327277029526253</v>
       </c>
       <c r="R3">
-        <v>1.213265190703177</v>
+        <v>1.221362702752062</v>
       </c>
       <c r="S3">
-        <v>0.01156532438814214</v>
+        <v>0.01154992788514052</v>
       </c>
       <c r="T3">
-        <v>0.7783703733365183</v>
+        <v>0.779407971311902</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4">
-        <v>-104.5575619954658</v>
+        <v>-104.3468227271361</v>
       </c>
       <c r="B4">
         <v>0.001189460449408623</v>
       </c>
       <c r="C4">
-        <v>0.00989223184460504</v>
+        <v>0.009931202987964183</v>
       </c>
       <c r="D4">
-        <v>2.858809185015484</v>
+        <v>2.847590900310127</v>
       </c>
       <c r="E4">
-        <v>0.007161589566022354</v>
+        <v>0.007161373392654631</v>
       </c>
       <c r="F4">
-        <v>0.01241299182380966</v>
+        <v>0.01241336652264171</v>
       </c>
       <c r="G4">
-        <v>2.732801464908563</v>
+        <v>2.73261122757083</v>
       </c>
       <c r="H4">
-        <v>0.02835613263148951</v>
+        <v>0.02835810671222438</v>
       </c>
       <c r="I4">
-        <v>1.859434291774539</v>
+        <v>1.868456204221887</v>
       </c>
       <c r="J4">
-        <v>3.020502513438849</v>
+        <v>3.005917901200326</v>
       </c>
       <c r="K4">
-        <v>0.006786684328291145</v>
+        <v>0.006788281550880812</v>
       </c>
       <c r="L4">
-        <v>0.1328349426970765</v>
+        <v>0.1328036878103157</v>
       </c>
       <c r="M4">
-        <v>4.922131641263948E-05</v>
+        <v>4.923290047853448E-05</v>
       </c>
       <c r="N4">
-        <v>0.1328349426970759</v>
+        <v>0.1328036878103152</v>
       </c>
       <c r="O4">
-        <v>1.318761168748879</v>
+        <v>1.31762407900823</v>
       </c>
       <c r="P4">
-        <v>0.6996302978996222</v>
+        <v>0.7002340683123393</v>
       </c>
       <c r="Q4">
-        <v>0.1720259765033036</v>
+        <v>0.1724751551947613</v>
       </c>
       <c r="R4">
-        <v>1.288866266384345</v>
+        <v>1.285509659675717</v>
       </c>
       <c r="S4">
-        <v>0.2271473406066673</v>
+        <v>0.227718299854116</v>
       </c>
       <c r="T4">
-        <v>1.004207197291201</v>
+        <v>1.001689343495457</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5">
-        <v>-5.839721199914383</v>
+        <v>-7.452253930086417</v>
       </c>
       <c r="B5">
-        <v>0.004968873446402618</v>
+        <v>0.004968873446402617</v>
       </c>
       <c r="C5">
-        <v>0.0100333743049465</v>
+        <v>0.01003286248391662</v>
       </c>
       <c r="D5">
-        <v>0.4349619753938642</v>
+        <v>0.4349841647427725</v>
       </c>
       <c r="E5">
-        <v>0.007142862075553487</v>
+        <v>0.00713951470888153</v>
       </c>
       <c r="F5">
-        <v>0.1244576487916852</v>
+        <v>0.124516000850981</v>
       </c>
       <c r="G5">
-        <v>0.0340967302398382</v>
+        <v>0.03411091781235923</v>
       </c>
       <c r="H5">
-        <v>0.1116689402647859</v>
+        <v>0.111622494396719</v>
       </c>
       <c r="I5">
-        <v>0.02555085954587517</v>
+        <v>0.02564128291718566</v>
       </c>
       <c r="J5">
-        <v>0.6619543840934289</v>
+        <v>0.659620017780448</v>
       </c>
       <c r="K5">
-        <v>0.007534880744515183</v>
+        <v>0.007522659131886342</v>
       </c>
       <c r="L5">
-        <v>0.4998060727591998</v>
+        <v>0.5006180776771035</v>
       </c>
       <c r="M5">
-        <v>5.464770885412191E-05</v>
+        <v>5.455907000882169E-05</v>
       </c>
       <c r="N5">
-        <v>0.4998060727591996</v>
+        <v>0.5006180776771032</v>
       </c>
       <c r="O5">
-        <v>0.00591597728632103</v>
+        <v>0.00581951220202368</v>
       </c>
       <c r="P5">
-        <v>2.735472217248397</v>
+        <v>2.780815804282748</v>
       </c>
       <c r="Q5">
-        <v>0.2258773629259085</v>
+        <v>0.224860292588127</v>
       </c>
       <c r="R5">
-        <v>1.318970989813419</v>
+        <v>1.324936855350163</v>
       </c>
       <c r="S5">
-        <v>0.001275102235063826</v>
+        <v>0.001290716398291085</v>
       </c>
       <c r="T5">
-        <v>2.976703557238916</v>
+        <v>2.940693528015276</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6">
-        <v>-62.86873172300111</v>
+        <v>-62.455539026395</v>
       </c>
       <c r="B6">
-        <v>0.001339707136559376</v>
+        <v>0.001339707136559375</v>
       </c>
       <c r="C6">
-        <v>0.009874096501533198</v>
+        <v>0.009938835616045487</v>
       </c>
       <c r="D6">
-        <v>2.835252277105481</v>
+        <v>2.816784145733791</v>
       </c>
       <c r="E6">
-        <v>0.007138611252906625</v>
+        <v>0.007138558533294139</v>
       </c>
       <c r="F6">
-        <v>0.01676710101204121</v>
+        <v>0.01676722484027121</v>
       </c>
       <c r="G6">
-        <v>2.732088290507844</v>
+        <v>2.732135489862179</v>
       </c>
       <c r="H6">
-        <v>0.03758627650321703</v>
+        <v>0.03758562717671422</v>
       </c>
       <c r="I6">
-        <v>1.964199288289368</v>
+        <v>1.951132635891098</v>
       </c>
       <c r="J6">
-        <v>2.59297788964079</v>
+        <v>2.610342952444355</v>
       </c>
       <c r="K6">
-        <v>0.007102649843288874</v>
+        <v>0.007105781488919688</v>
       </c>
       <c r="L6">
-        <v>0.1429583220526354</v>
+        <v>0.1428953177503862</v>
       </c>
       <c r="M6">
-        <v>5.151289766747321E-05</v>
+        <v>5.153561033731759E-05</v>
       </c>
       <c r="N6">
-        <v>0.1429583220526351</v>
+        <v>0.1428953177503859</v>
       </c>
       <c r="O6">
-        <v>1.313376020743112</v>
+        <v>1.315685602038329</v>
       </c>
       <c r="P6">
-        <v>0.5419099520255938</v>
+        <v>0.5409586722616812</v>
       </c>
       <c r="Q6">
-        <v>0.1815114725115821</v>
+        <v>0.1815974558276844</v>
       </c>
       <c r="R6">
-        <v>1.276965247862709</v>
+        <v>1.27636062647053</v>
       </c>
       <c r="S6">
-        <v>0.2393297008339995</v>
+        <v>0.2399428959188615</v>
       </c>
       <c r="T6">
-        <v>1.282651499612487</v>
+        <v>1.279373571369847</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7">
-        <v>9.546339218875932</v>
+        <v>8.558799757307334</v>
       </c>
       <c r="B7">
         <v>0.001978891721470877</v>
       </c>
       <c r="C7">
-        <v>0.01001478293103228</v>
+        <v>0.01000159070118261</v>
       </c>
       <c r="D7">
-        <v>0.2991249825553106</v>
+        <v>0.2995195323465933</v>
       </c>
       <c r="E7">
-        <v>0.007148360260622351</v>
+        <v>0.00714736006040352</v>
       </c>
       <c r="F7">
-        <v>0.03217013055235829</v>
+        <v>0.03217463243436037</v>
       </c>
       <c r="G7">
-        <v>0.13025665020751</v>
+        <v>0.1302778757219377</v>
       </c>
       <c r="H7">
-        <v>0.0304533949071753</v>
+        <v>0.03044843328979099</v>
       </c>
       <c r="I7">
-        <v>0.09979483482092993</v>
+        <v>0.09969720717163566</v>
       </c>
       <c r="J7">
-        <v>0.4047604426046078</v>
+        <v>0.4051568008543506</v>
       </c>
       <c r="K7">
-        <v>0.007651493862998872</v>
+        <v>0.007644009162360457</v>
       </c>
       <c r="L7">
-        <v>0.1960179186031241</v>
+        <v>0.1962098513192351</v>
       </c>
       <c r="M7">
-        <v>5.549346075963237E-05</v>
+        <v>5.543917698856591E-05</v>
       </c>
       <c r="N7">
-        <v>0.1960179186031242</v>
+        <v>0.1962098513192353</v>
       </c>
       <c r="O7">
-        <v>0.0178350442126846</v>
+        <v>0.01782589513152004</v>
       </c>
       <c r="P7">
-        <v>1.001637272163748</v>
+        <v>1.002151359149723</v>
       </c>
       <c r="Q7">
-        <v>0.249544100283467</v>
+        <v>0.2501805126752944</v>
       </c>
       <c r="R7">
-        <v>0.5610059207786317</v>
+        <v>0.5595788267333994</v>
       </c>
       <c r="S7">
-        <v>0.004458868121831113</v>
+        <v>0.004467168957753317</v>
       </c>
       <c r="T7">
-        <v>0.6951140999644831</v>
+        <v>0.6938224478811204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8">
-        <v>-75.86083758120998</v>
+        <v>-75.63705950374199</v>
       </c>
       <c r="B8">
         <v>0.001344655020757129</v>
       </c>
       <c r="C8">
-        <v>0.01004572493302904</v>
+        <v>0.01003148007266415</v>
       </c>
       <c r="D8">
-        <v>1.992442478963868</v>
+        <v>1.995271778797226</v>
       </c>
       <c r="E8">
-        <v>0.007147061784218761</v>
+        <v>0.007146590616651994</v>
       </c>
       <c r="F8">
-        <v>0.0136597412716</v>
+        <v>0.01366064184467083</v>
       </c>
       <c r="G8">
-        <v>2.732115343543472</v>
+        <v>2.731930548347546</v>
       </c>
       <c r="H8">
-        <v>0.03047388671108196</v>
+        <v>0.03047594804747604</v>
       </c>
       <c r="I8">
-        <v>1.909622255286029</v>
+        <v>1.91296454162027</v>
       </c>
       <c r="J8">
-        <v>2.058287584107706</v>
+        <v>2.054691392795934</v>
       </c>
       <c r="K8">
-        <v>0.007004180843521679</v>
+        <v>0.007005876889081848</v>
       </c>
       <c r="L8">
-        <v>0.145503521053876</v>
+        <v>0.145468296255499</v>
       </c>
       <c r="M8">
-        <v>5.079873835787148E-05</v>
+        <v>5.081103915029519E-05</v>
       </c>
       <c r="N8">
-        <v>0.1455035210538751</v>
+        <v>0.145468296255498</v>
       </c>
       <c r="O8">
-        <v>1.313894569432621</v>
+        <v>1.31376371035002</v>
       </c>
       <c r="P8">
-        <v>0.4004388910101656</v>
+        <v>0.40047877722829</v>
       </c>
       <c r="Q8">
-        <v>0.1792768137488384</v>
+        <v>0.1796494562131981</v>
       </c>
       <c r="R8">
-        <v>1.36931034548719</v>
+        <v>1.36647001859519</v>
       </c>
       <c r="S8">
-        <v>0.237419497300097</v>
+        <v>0.2357733899885544</v>
       </c>
       <c r="T8">
-        <v>1.300845533637271</v>
+        <v>1.309927692333007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9">
-        <v>12.36075644313317</v>
+        <v>12.65834557701262</v>
       </c>
       <c r="B9">
         <v>0.001617865900988797</v>
       </c>
       <c r="C9">
-        <v>0.01002841579556259</v>
+        <v>0.01003530148248776</v>
       </c>
       <c r="D9">
-        <v>0.2201995065723723</v>
+        <v>0.220048417453029</v>
       </c>
       <c r="E9">
-        <v>0.007143815489368317</v>
+        <v>0.007143863131307234</v>
       </c>
       <c r="F9">
-        <v>0.01362284789174124</v>
+        <v>0.01362275704189219</v>
       </c>
       <c r="G9">
-        <v>0.3862560754627928</v>
+        <v>0.38626528275149</v>
       </c>
       <c r="H9">
-        <v>0.008381937270669283</v>
+        <v>0.008381737472966153</v>
       </c>
       <c r="I9">
-        <v>0.2950203981457464</v>
+        <v>0.2949953497862585</v>
       </c>
       <c r="J9">
-        <v>0.2452953080741899</v>
+        <v>0.2453161363518621</v>
       </c>
       <c r="K9">
-        <v>0.007672824727450308</v>
+        <v>0.007675080197400639</v>
       </c>
       <c r="L9">
-        <v>0.1598112027448657</v>
+        <v>0.1597642391488841</v>
       </c>
       <c r="M9">
-        <v>5.564816564610286E-05</v>
+        <v>5.566452373714028E-05</v>
       </c>
       <c r="N9">
-        <v>0.1598112027448663</v>
+        <v>0.1597642391488846</v>
       </c>
       <c r="O9">
-        <v>0.1439144830952803</v>
+        <v>0.1441234321365172</v>
       </c>
       <c r="P9">
-        <v>0.3545939382889378</v>
+        <v>0.3540798507298535</v>
       </c>
       <c r="Q9">
-        <v>0.01854280137926809</v>
+        <v>0.01852905203638091</v>
       </c>
       <c r="R9">
-        <v>0.2678043872163008</v>
+        <v>0.2680031094358345</v>
       </c>
       <c r="S9">
-        <v>0.002664819065216426</v>
+        <v>0.002669231605397931</v>
       </c>
       <c r="T9">
-        <v>0.3003097617298618</v>
+        <v>0.2998133159033358</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10">
-        <v>-71.44487965943026</v>
+        <v>-71.04536126314554</v>
       </c>
       <c r="B10">
         <v>0.001324340229563539</v>
       </c>
       <c r="C10">
-        <v>0.009704301232877284</v>
+        <v>0.009688541303555528</v>
       </c>
       <c r="D10">
-        <v>2.952408997433019</v>
+        <v>2.957211552912798</v>
       </c>
       <c r="E10">
-        <v>0.007142544835425622</v>
+        <v>0.007142427503754504</v>
       </c>
       <c r="F10">
-        <v>0.01643770650865622</v>
+        <v>0.01643797653779869</v>
       </c>
       <c r="G10">
-        <v>2.730916960379401</v>
+        <v>2.731666440643729</v>
       </c>
       <c r="H10">
-        <v>0.02987894985692672</v>
+        <v>0.02987075204664381</v>
       </c>
       <c r="I10">
-        <v>1.978969540598102</v>
+        <v>1.998339578541245</v>
       </c>
       <c r="J10">
-        <v>2.995900406725089</v>
+        <v>2.966860945576796</v>
       </c>
       <c r="K10">
-        <v>0.007037650010438674</v>
+        <v>0.007040678016621821</v>
       </c>
       <c r="L10">
-        <v>0.1426237603512209</v>
+        <v>0.1425624217092339</v>
       </c>
       <c r="M10">
-        <v>5.104147787177837E-05</v>
+        <v>5.1063438882963E-05</v>
       </c>
       <c r="N10">
-        <v>0.1426237603512225</v>
+        <v>0.1425624217092355</v>
       </c>
       <c r="O10">
-        <v>1.313401030074132</v>
+        <v>1.315343398344421</v>
       </c>
       <c r="P10">
-        <v>0.5610582032256292</v>
+        <v>0.5602296882894516</v>
       </c>
       <c r="Q10">
-        <v>0.1781077787529703</v>
+        <v>0.177974970287479</v>
       </c>
       <c r="R10">
-        <v>1.347426895188685</v>
+        <v>1.348432371958944</v>
       </c>
       <c r="S10">
-        <v>0.2340801724982518</v>
+        <v>0.2340376254952511</v>
       </c>
       <c r="T10">
-        <v>1.249551793680257</v>
+        <v>1.249778956658016</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11">
-        <v>83.8017189331639</v>
+        <v>83.89337830856735</v>
       </c>
       <c r="B11">
         <v>0.001280124441955429</v>
       </c>
       <c r="C11">
-        <v>0.009527788728580266</v>
+        <v>0.009530949851512161</v>
       </c>
       <c r="D11">
-        <v>0.3030891627036431</v>
+        <v>0.3029886373501832</v>
       </c>
       <c r="E11">
-        <v>0.007134218452142054</v>
+        <v>0.00713321812664829</v>
       </c>
       <c r="F11">
-        <v>0.01409245919554022</v>
+        <v>0.01409443544888798</v>
       </c>
       <c r="G11">
-        <v>0.4493095712755549</v>
+        <v>0.449309322731185</v>
       </c>
       <c r="H11">
-        <v>0.009845085273641255</v>
+        <v>0.009845090719645582</v>
       </c>
       <c r="I11">
-        <v>0.3879811114348265</v>
+        <v>0.3876068192742979</v>
       </c>
       <c r="J11">
-        <v>0.3356162693401005</v>
+        <v>0.3359403568749768</v>
       </c>
       <c r="K11">
-        <v>0.008214285842035851</v>
+        <v>0.008214980541348931</v>
       </c>
       <c r="L11">
-        <v>0.1181142656994033</v>
+        <v>0.1181042773739492</v>
       </c>
       <c r="M11">
-        <v>5.957518325248473E-05</v>
+        <v>5.958022165018338E-05</v>
       </c>
       <c r="N11">
-        <v>0.1181142656994044</v>
+        <v>0.1181042773739502</v>
       </c>
       <c r="O11">
-        <v>0.1435004739645551</v>
+        <v>0.1435802128450965</v>
       </c>
       <c r="P11">
-        <v>0.3364125203266247</v>
+        <v>0.336225689862737</v>
       </c>
       <c r="Q11">
-        <v>0.0009632431920858298</v>
+        <v>0.0009642275086030902</v>
       </c>
       <c r="R11">
-        <v>0.2425308994468452</v>
+        <v>0.242283315585006</v>
       </c>
       <c r="S11">
-        <v>0.0001387051772344693</v>
+        <v>0.0001385718953360891</v>
       </c>
       <c r="T11">
-        <v>0.2437602373737419</v>
+        <v>0.2439946920379288</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12">
-        <v>-55.96025251709802</v>
+        <v>-55.71146207928979</v>
       </c>
       <c r="B12">
         <v>0.001278282583173604</v>
       </c>
       <c r="C12">
-        <v>0.0100897270525572</v>
+        <v>0.01012869368785669</v>
       </c>
       <c r="D12">
-        <v>2.821731897047214</v>
+        <v>2.810876262437888</v>
       </c>
       <c r="E12">
-        <v>0.007131058935610058</v>
+        <v>0.007130956613605904</v>
       </c>
       <c r="F12">
-        <v>0.01752619165882355</v>
+        <v>0.01752644314192083</v>
       </c>
       <c r="G12">
-        <v>2.733406780273269</v>
+        <v>2.733315956497029</v>
       </c>
       <c r="H12">
-        <v>0.0309867296100948</v>
+        <v>0.03098775925022471</v>
       </c>
       <c r="I12">
-        <v>1.93651096581199</v>
+        <v>1.943086602579645</v>
       </c>
       <c r="J12">
-        <v>2.911054507922101</v>
+        <v>2.901203152336854</v>
       </c>
       <c r="K12">
-        <v>0.007155010179999642</v>
+        <v>0.00715689579776092</v>
       </c>
       <c r="L12">
-        <v>0.1354055892860337</v>
+        <v>0.1353699141565714</v>
       </c>
       <c r="M12">
-        <v>5.18926478630097E-05</v>
+        <v>5.190632355263537E-05</v>
       </c>
       <c r="N12">
-        <v>0.1354055892860333</v>
+        <v>0.1353699141565709</v>
       </c>
       <c r="O12">
-        <v>1.318061540309394</v>
+        <v>1.31633189883816</v>
       </c>
       <c r="P12">
-        <v>0.4537658690026182</v>
+        <v>0.4543621109275845</v>
       </c>
       <c r="Q12">
-        <v>0.1784094620679704</v>
+        <v>0.1786038163860654</v>
       </c>
       <c r="R12">
-        <v>1.295662586723902</v>
+        <v>1.294252663780376</v>
       </c>
       <c r="S12">
-        <v>0.2344069680057224</v>
+        <v>0.2357903936137166</v>
       </c>
       <c r="T12">
-        <v>1.375813528981661</v>
+        <v>1.367741377955286</v>
       </c>
     </row>
   </sheetData>

--- a/data/Yting_260321_20210326-103027/Ratios.xlsx
+++ b/data/Yting_260321_20210326-103027/Ratios.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+  <si>
+    <t>Lab. #</t>
+  </si>
   <si>
     <t>dU234</t>
   </si>
@@ -89,12 +92,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,35 +415,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="23.7109375" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="22.7109375" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="22.7109375" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,687 +505,723 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2">
-        <v>-105.6004059644875</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:21" s="1" customFormat="1">
+      <c r="A2" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-105.543252184767</v>
+      </c>
+      <c r="C2" s="1">
         <v>0.001522748921522226</v>
       </c>
-      <c r="C2">
-        <v>0.01023542238374481</v>
-      </c>
-      <c r="D2">
-        <v>2.525366425064601</v>
-      </c>
-      <c r="E2">
-        <v>0.007165735470860413</v>
-      </c>
-      <c r="F2">
-        <v>0.01478863668832112</v>
-      </c>
-      <c r="G2">
-        <v>2.732165266071587</v>
-      </c>
-      <c r="H2">
-        <v>0.02316925422885041</v>
-      </c>
-      <c r="I2">
-        <v>1.808951687183812</v>
-      </c>
-      <c r="J2">
-        <v>2.576467054448028</v>
-      </c>
-      <c r="K2">
-        <v>0.006778780467003105</v>
-      </c>
-      <c r="L2">
-        <v>0.1702537581274621</v>
-      </c>
-      <c r="M2">
-        <v>4.916399262409689E-05</v>
-      </c>
-      <c r="N2">
-        <v>0.1702537581274623</v>
-      </c>
-      <c r="O2">
-        <v>1.318240643972384</v>
-      </c>
-      <c r="P2">
-        <v>0.5337376544124303</v>
-      </c>
-      <c r="Q2">
-        <v>0.1702167991392523</v>
-      </c>
-      <c r="R2">
-        <v>1.613088256207097</v>
-      </c>
-      <c r="S2">
-        <v>0.2230016042121955</v>
-      </c>
-      <c r="T2">
-        <v>1.55796235410836</v>
+      <c r="D2" s="1">
+        <v>0.01033884581771135</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.500104217627813</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.007165398358242347</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.01478933245368997</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.732032438034333</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.0231703806893276</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.789684977792535</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.604203802875942</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.006779213643547647</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.1702428792942347</v>
+      </c>
+      <c r="N2" s="1">
+        <v>4.916713429368548E-05</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.1702428792942349</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1.318828763693015</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.5334996389483724</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.1702371670050599</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1.612895259779135</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.2241705192850406</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1.549838513005388</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3">
-        <v>0.1774019644116276</v>
+        <v>11069</v>
       </c>
       <c r="B3">
+        <v>0.8844531054512661</v>
+      </c>
+      <c r="C3">
         <v>0.002107527865453386</v>
       </c>
-      <c r="C3">
-        <v>0.01023651243346234</v>
-      </c>
       <c r="D3">
-        <v>3.9025283601347</v>
+        <v>0.01001464435336744</v>
       </c>
       <c r="E3">
-        <v>0.007151741669928597</v>
+        <v>3.988986395410593</v>
       </c>
       <c r="F3">
-        <v>0.243603262622918</v>
+        <v>0.007159443268110569</v>
       </c>
       <c r="G3">
-        <v>0.2056506777876824</v>
+        <v>0.2433412122966173</v>
       </c>
       <c r="H3">
-        <v>2.826771272669783</v>
+        <v>0.2087949818774892</v>
       </c>
       <c r="I3">
-        <v>0.1561259601382454</v>
+        <v>2.784202105567774</v>
       </c>
       <c r="J3">
-        <v>2.240823406699239</v>
+        <v>0.157989250425516</v>
       </c>
       <c r="K3">
-        <v>0.007580485368271605</v>
+        <v>2.214395630898379</v>
       </c>
       <c r="L3">
-        <v>0.2107154052185198</v>
+        <v>0.007585844208432104</v>
       </c>
       <c r="M3">
-        <v>5.49784623571892E-05</v>
+        <v>0.2105665503060151</v>
       </c>
       <c r="N3">
-        <v>0.2107154052185211</v>
+        <v>5.501732804688176E-05</v>
       </c>
       <c r="O3">
-        <v>0.03604320149520462</v>
+        <v>0.2105665503060163</v>
       </c>
       <c r="P3">
-        <v>5.579804477398916</v>
+        <v>0.03525242983938701</v>
       </c>
       <c r="Q3">
-        <v>0.327277029526253</v>
+        <v>5.704968934028837</v>
       </c>
       <c r="R3">
-        <v>1.221362702752062</v>
+        <v>0.3294613250209388</v>
       </c>
       <c r="S3">
-        <v>0.01154992788514052</v>
+        <v>1.213265190703177</v>
       </c>
       <c r="T3">
-        <v>0.779407971311902</v>
+        <v>0.01156532438814214</v>
+      </c>
+      <c r="U3">
+        <v>0.7783703733365183</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4">
-        <v>-104.3468227271361</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:21" s="1" customFormat="1">
+      <c r="A4" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-104.5575619954658</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.001189460449408623</v>
       </c>
-      <c r="C4">
-        <v>0.009931202987964183</v>
-      </c>
-      <c r="D4">
-        <v>2.847590900310127</v>
-      </c>
-      <c r="E4">
-        <v>0.007161373392654631</v>
-      </c>
-      <c r="F4">
-        <v>0.01241336652264171</v>
-      </c>
-      <c r="G4">
-        <v>2.73261122757083</v>
-      </c>
-      <c r="H4">
-        <v>0.02835810671222438</v>
-      </c>
-      <c r="I4">
-        <v>1.868456204221887</v>
-      </c>
-      <c r="J4">
-        <v>3.005917901200326</v>
-      </c>
-      <c r="K4">
-        <v>0.006788281550880812</v>
-      </c>
-      <c r="L4">
-        <v>0.1328036878103157</v>
-      </c>
-      <c r="M4">
-        <v>4.923290047853448E-05</v>
-      </c>
-      <c r="N4">
-        <v>0.1328036878103152</v>
-      </c>
-      <c r="O4">
-        <v>1.31762407900823</v>
-      </c>
-      <c r="P4">
-        <v>0.7002340683123393</v>
-      </c>
-      <c r="Q4">
-        <v>0.1724751551947613</v>
-      </c>
-      <c r="R4">
-        <v>1.285509659675717</v>
-      </c>
-      <c r="S4">
-        <v>0.227718299854116</v>
-      </c>
-      <c r="T4">
-        <v>1.001689343495457</v>
+      <c r="D4" s="1">
+        <v>0.00989223184460504</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.858809185015484</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.007161589566022354</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.01241299182380966</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.732801464908563</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.02835613263148951</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.859434291774539</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3.020502513438849</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.006786684328291145</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.1328349426970765</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4.922131641263948E-05</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.1328349426970759</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1.318761168748879</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.6996302978996222</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.1720259765033036</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1.288866266384345</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.2271473406066673</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1.004207197291201</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5">
-        <v>-7.452253930086417</v>
+        <v>11070</v>
       </c>
       <c r="B5">
-        <v>0.004968873446402617</v>
+        <v>-5.839721199914383</v>
       </c>
       <c r="C5">
-        <v>0.01003286248391662</v>
+        <v>0.004968873446402618</v>
       </c>
       <c r="D5">
-        <v>0.4349841647427725</v>
+        <v>0.0100333743049465</v>
       </c>
       <c r="E5">
-        <v>0.00713951470888153</v>
+        <v>0.4349619753938642</v>
       </c>
       <c r="F5">
-        <v>0.124516000850981</v>
+        <v>0.007142862075553487</v>
       </c>
       <c r="G5">
-        <v>0.03411091781235923</v>
+        <v>0.1244576487916852</v>
       </c>
       <c r="H5">
-        <v>0.111622494396719</v>
+        <v>0.0340967302398382</v>
       </c>
       <c r="I5">
-        <v>0.02564128291718566</v>
+        <v>0.1116689402647859</v>
       </c>
       <c r="J5">
-        <v>0.659620017780448</v>
+        <v>0.02555085954587517</v>
       </c>
       <c r="K5">
-        <v>0.007522659131886342</v>
+        <v>0.6619543840934289</v>
       </c>
       <c r="L5">
-        <v>0.5006180776771035</v>
+        <v>0.007534880744515183</v>
       </c>
       <c r="M5">
-        <v>5.455907000882169E-05</v>
+        <v>0.4998060727591998</v>
       </c>
       <c r="N5">
-        <v>0.5006180776771032</v>
+        <v>5.464770885412191E-05</v>
       </c>
       <c r="O5">
-        <v>0.00581951220202368</v>
+        <v>0.4998060727591996</v>
       </c>
       <c r="P5">
-        <v>2.780815804282748</v>
+        <v>0.00591597728632103</v>
       </c>
       <c r="Q5">
-        <v>0.224860292588127</v>
+        <v>2.735472217248397</v>
       </c>
       <c r="R5">
-        <v>1.324936855350163</v>
+        <v>0.2258773629259085</v>
       </c>
       <c r="S5">
-        <v>0.001290716398291085</v>
+        <v>1.318970989813419</v>
       </c>
       <c r="T5">
-        <v>2.940693528015276</v>
+        <v>0.001275102235063826</v>
+      </c>
+      <c r="U5">
+        <v>2.976703557238916</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6">
-        <v>-62.455539026395</v>
-      </c>
-      <c r="B6">
-        <v>0.001339707136559375</v>
-      </c>
-      <c r="C6">
-        <v>0.009938835616045487</v>
-      </c>
-      <c r="D6">
-        <v>2.816784145733791</v>
-      </c>
-      <c r="E6">
-        <v>0.007138558533294139</v>
-      </c>
-      <c r="F6">
-        <v>0.01676722484027121</v>
-      </c>
-      <c r="G6">
-        <v>2.732135489862179</v>
-      </c>
-      <c r="H6">
-        <v>0.03758562717671422</v>
-      </c>
-      <c r="I6">
-        <v>1.951132635891098</v>
-      </c>
-      <c r="J6">
-        <v>2.610342952444355</v>
-      </c>
-      <c r="K6">
-        <v>0.007105781488919688</v>
-      </c>
-      <c r="L6">
-        <v>0.1428953177503862</v>
-      </c>
-      <c r="M6">
-        <v>5.153561033731759E-05</v>
-      </c>
-      <c r="N6">
-        <v>0.1428953177503859</v>
-      </c>
-      <c r="O6">
-        <v>1.315685602038329</v>
-      </c>
-      <c r="P6">
-        <v>0.5409586722616812</v>
-      </c>
-      <c r="Q6">
-        <v>0.1815974558276844</v>
-      </c>
-      <c r="R6">
-        <v>1.27636062647053</v>
-      </c>
-      <c r="S6">
-        <v>0.2399428959188615</v>
-      </c>
-      <c r="T6">
-        <v>1.279373571369847</v>
+    <row r="6" spans="1:21" s="1" customFormat="1">
+      <c r="A6" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-62.86873172300111</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.001339707136559376</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.009874096501533198</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.835252277105481</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.007138611252906625</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.01676710101204121</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.732088290507844</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.03758627650321703</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.964199288289368</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.59297788964079</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.007102649843288874</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.1429583220526354</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5.151289766747321E-05</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.1429583220526351</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.313376020743112</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.5419099520255938</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.1815114725115821</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1.276965247862709</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.2393297008339995</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1.282651499612487</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7">
-        <v>8.558799757307334</v>
+        <v>11071</v>
       </c>
       <c r="B7">
+        <v>9.546339218875932</v>
+      </c>
+      <c r="C7">
         <v>0.001978891721470877</v>
       </c>
-      <c r="C7">
-        <v>0.01000159070118261</v>
-      </c>
       <c r="D7">
-        <v>0.2995195323465933</v>
+        <v>0.01001478293103228</v>
       </c>
       <c r="E7">
-        <v>0.00714736006040352</v>
+        <v>0.2991249825553106</v>
       </c>
       <c r="F7">
-        <v>0.03217463243436037</v>
+        <v>0.007148360260622351</v>
       </c>
       <c r="G7">
-        <v>0.1302778757219377</v>
+        <v>0.03217013055235829</v>
       </c>
       <c r="H7">
-        <v>0.03044843328979099</v>
+        <v>0.13025665020751</v>
       </c>
       <c r="I7">
-        <v>0.09969720717163566</v>
+        <v>0.0304533949071753</v>
       </c>
       <c r="J7">
-        <v>0.4051568008543506</v>
+        <v>0.09979483482092993</v>
       </c>
       <c r="K7">
-        <v>0.007644009162360457</v>
+        <v>0.4047604426046078</v>
       </c>
       <c r="L7">
-        <v>0.1962098513192351</v>
+        <v>0.007651493862998872</v>
       </c>
       <c r="M7">
-        <v>5.543917698856591E-05</v>
+        <v>0.1960179186031241</v>
       </c>
       <c r="N7">
-        <v>0.1962098513192353</v>
+        <v>5.549346075963237E-05</v>
       </c>
       <c r="O7">
-        <v>0.01782589513152004</v>
+        <v>0.1960179186031242</v>
       </c>
       <c r="P7">
-        <v>1.002151359149723</v>
+        <v>0.0178350442126846</v>
       </c>
       <c r="Q7">
-        <v>0.2501805126752944</v>
+        <v>1.001637272163748</v>
       </c>
       <c r="R7">
-        <v>0.5595788267333994</v>
+        <v>0.249544100283467</v>
       </c>
       <c r="S7">
-        <v>0.004467168957753317</v>
+        <v>0.5610059207786317</v>
       </c>
       <c r="T7">
-        <v>0.6938224478811204</v>
+        <v>0.004458868121831113</v>
+      </c>
+      <c r="U7">
+        <v>0.6951140999644831</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8">
-        <v>-75.63705950374199</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:21" s="1" customFormat="1">
+      <c r="A8" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-75.86083758120998</v>
+      </c>
+      <c r="C8" s="1">
         <v>0.001344655020757129</v>
       </c>
-      <c r="C8">
-        <v>0.01003148007266415</v>
-      </c>
-      <c r="D8">
-        <v>1.995271778797226</v>
-      </c>
-      <c r="E8">
-        <v>0.007146590616651994</v>
-      </c>
-      <c r="F8">
-        <v>0.01366064184467083</v>
-      </c>
-      <c r="G8">
-        <v>2.731930548347546</v>
-      </c>
-      <c r="H8">
-        <v>0.03047594804747604</v>
-      </c>
-      <c r="I8">
-        <v>1.91296454162027</v>
-      </c>
-      <c r="J8">
-        <v>2.054691392795934</v>
-      </c>
-      <c r="K8">
-        <v>0.007005876889081848</v>
-      </c>
-      <c r="L8">
-        <v>0.145468296255499</v>
-      </c>
-      <c r="M8">
-        <v>5.081103915029519E-05</v>
-      </c>
-      <c r="N8">
-        <v>0.145468296255498</v>
-      </c>
-      <c r="O8">
-        <v>1.31376371035002</v>
-      </c>
-      <c r="P8">
-        <v>0.40047877722829</v>
-      </c>
-      <c r="Q8">
-        <v>0.1796494562131981</v>
-      </c>
-      <c r="R8">
-        <v>1.36647001859519</v>
-      </c>
-      <c r="S8">
-        <v>0.2357733899885544</v>
-      </c>
-      <c r="T8">
-        <v>1.309927692333007</v>
+      <c r="D8" s="1">
+        <v>0.01004572493302904</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.992442478963868</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.007147061784218761</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.0136597412716</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2.732115343543472</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.03047388671108196</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.909622255286029</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.058287584107706</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.007004180843521679</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.145503521053876</v>
+      </c>
+      <c r="N8" s="1">
+        <v>5.079873835787148E-05</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.1455035210538751</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1.313894569432621</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.4004388910101656</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.1792768137488384</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1.36931034548719</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.237419497300097</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1.300845533637271</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9">
-        <v>12.65834557701262</v>
+        <v>11072</v>
       </c>
       <c r="B9">
+        <v>12.36075644313317</v>
+      </c>
+      <c r="C9">
         <v>0.001617865900988797</v>
       </c>
-      <c r="C9">
-        <v>0.01003530148248776</v>
-      </c>
       <c r="D9">
-        <v>0.220048417453029</v>
+        <v>0.01002841579556259</v>
       </c>
       <c r="E9">
-        <v>0.007143863131307234</v>
+        <v>0.2201995065723723</v>
       </c>
       <c r="F9">
-        <v>0.01362275704189219</v>
+        <v>0.007143815489368317</v>
       </c>
       <c r="G9">
-        <v>0.38626528275149</v>
+        <v>0.01362284789174124</v>
       </c>
       <c r="H9">
-        <v>0.008381737472966153</v>
+        <v>0.3862560754627928</v>
       </c>
       <c r="I9">
-        <v>0.2949953497862585</v>
+        <v>0.008381937270669283</v>
       </c>
       <c r="J9">
-        <v>0.2453161363518621</v>
+        <v>0.2950203981457464</v>
       </c>
       <c r="K9">
-        <v>0.007675080197400639</v>
+        <v>0.2452953080741899</v>
       </c>
       <c r="L9">
-        <v>0.1597642391488841</v>
+        <v>0.007672824727450308</v>
       </c>
       <c r="M9">
-        <v>5.566452373714028E-05</v>
+        <v>0.1598112027448657</v>
       </c>
       <c r="N9">
-        <v>0.1597642391488846</v>
+        <v>5.564816564610286E-05</v>
       </c>
       <c r="O9">
-        <v>0.1441234321365172</v>
+        <v>0.1598112027448663</v>
       </c>
       <c r="P9">
-        <v>0.3540798507298535</v>
+        <v>0.1439144830952803</v>
       </c>
       <c r="Q9">
-        <v>0.01852905203638091</v>
+        <v>0.3545939382889378</v>
       </c>
       <c r="R9">
-        <v>0.2680031094358345</v>
+        <v>0.01854280137926809</v>
       </c>
       <c r="S9">
-        <v>0.002669231605397931</v>
+        <v>0.2678043872163008</v>
       </c>
       <c r="T9">
-        <v>0.2998133159033358</v>
+        <v>0.002664819065216426</v>
+      </c>
+      <c r="U9">
+        <v>0.3003097617298618</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10">
-        <v>-71.04536126314554</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:21" s="1" customFormat="1">
+      <c r="A10" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-71.44487965943026</v>
+      </c>
+      <c r="C10" s="1">
         <v>0.001324340229563539</v>
       </c>
-      <c r="C10">
-        <v>0.009688541303555528</v>
-      </c>
-      <c r="D10">
-        <v>2.957211552912798</v>
-      </c>
-      <c r="E10">
-        <v>0.007142427503754504</v>
-      </c>
-      <c r="F10">
-        <v>0.01643797653779869</v>
-      </c>
-      <c r="G10">
-        <v>2.731666440643729</v>
-      </c>
-      <c r="H10">
-        <v>0.02987075204664381</v>
-      </c>
-      <c r="I10">
-        <v>1.998339578541245</v>
-      </c>
-      <c r="J10">
-        <v>2.966860945576796</v>
-      </c>
-      <c r="K10">
-        <v>0.007040678016621821</v>
-      </c>
-      <c r="L10">
-        <v>0.1425624217092339</v>
-      </c>
-      <c r="M10">
-        <v>5.1063438882963E-05</v>
-      </c>
-      <c r="N10">
-        <v>0.1425624217092355</v>
-      </c>
-      <c r="O10">
-        <v>1.315343398344421</v>
-      </c>
-      <c r="P10">
-        <v>0.5602296882894516</v>
-      </c>
-      <c r="Q10">
-        <v>0.177974970287479</v>
-      </c>
-      <c r="R10">
-        <v>1.348432371958944</v>
-      </c>
-      <c r="S10">
-        <v>0.2340376254952511</v>
-      </c>
-      <c r="T10">
-        <v>1.249778956658016</v>
+      <c r="D10" s="1">
+        <v>0.009704301232877284</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.952408997433019</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.007142544835425622</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.01643770650865622</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2.730916960379401</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.02987894985692672</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.978969540598102</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2.995900406725089</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.007037650010438674</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.1426237603512209</v>
+      </c>
+      <c r="N10" s="1">
+        <v>5.104147787177837E-05</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.1426237603512225</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1.313401030074132</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.5610582032256292</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.1781077787529703</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1.347426895188685</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0.2340801724982518</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1.249551793680257</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11">
-        <v>83.89337830856735</v>
+        <v>11074</v>
       </c>
       <c r="B11">
+        <v>83.8017189331639</v>
+      </c>
+      <c r="C11">
         <v>0.001280124441955429</v>
       </c>
-      <c r="C11">
-        <v>0.009530949851512161</v>
-      </c>
       <c r="D11">
-        <v>0.3029886373501832</v>
+        <v>0.009527788728580266</v>
       </c>
       <c r="E11">
-        <v>0.00713321812664829</v>
+        <v>0.3030891627036431</v>
       </c>
       <c r="F11">
-        <v>0.01409443544888798</v>
+        <v>0.007134218452142054</v>
       </c>
       <c r="G11">
-        <v>0.449309322731185</v>
+        <v>0.01409245919554022</v>
       </c>
       <c r="H11">
-        <v>0.009845090719645582</v>
+        <v>0.4493095712755549</v>
       </c>
       <c r="I11">
-        <v>0.3876068192742979</v>
+        <v>0.009845085273641255</v>
       </c>
       <c r="J11">
-        <v>0.3359403568749768</v>
+        <v>0.3879811114348265</v>
       </c>
       <c r="K11">
-        <v>0.008214980541348931</v>
+        <v>0.3356162693401005</v>
       </c>
       <c r="L11">
-        <v>0.1181042773739492</v>
+        <v>0.008214285842035851</v>
       </c>
       <c r="M11">
-        <v>5.958022165018338E-05</v>
+        <v>0.1181142656994033</v>
       </c>
       <c r="N11">
-        <v>0.1181042773739502</v>
+        <v>5.957518325248473E-05</v>
       </c>
       <c r="O11">
-        <v>0.1435802128450965</v>
+        <v>0.1181142656994044</v>
       </c>
       <c r="P11">
-        <v>0.336225689862737</v>
+        <v>0.1435004739645551</v>
       </c>
       <c r="Q11">
-        <v>0.0009642275086030902</v>
+        <v>0.3364125203266247</v>
       </c>
       <c r="R11">
-        <v>0.242283315585006</v>
+        <v>0.0009632431920858298</v>
       </c>
       <c r="S11">
-        <v>0.0001385718953360891</v>
+        <v>0.2425308994468452</v>
       </c>
       <c r="T11">
-        <v>0.2439946920379288</v>
+        <v>0.0001387051772344693</v>
+      </c>
+      <c r="U11">
+        <v>0.2437602373737419</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12">
-        <v>-55.71146207928979</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:21" s="1" customFormat="1">
+      <c r="A12" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-55.96025251709802</v>
+      </c>
+      <c r="C12" s="1">
         <v>0.001278282583173604</v>
       </c>
-      <c r="C12">
-        <v>0.01012869368785669</v>
-      </c>
-      <c r="D12">
-        <v>2.810876262437888</v>
-      </c>
-      <c r="E12">
-        <v>0.007130956613605904</v>
-      </c>
-      <c r="F12">
-        <v>0.01752644314192083</v>
-      </c>
-      <c r="G12">
-        <v>2.733315956497029</v>
-      </c>
-      <c r="H12">
-        <v>0.03098775925022471</v>
-      </c>
-      <c r="I12">
-        <v>1.943086602579645</v>
-      </c>
-      <c r="J12">
-        <v>2.901203152336854</v>
-      </c>
-      <c r="K12">
-        <v>0.00715689579776092</v>
-      </c>
-      <c r="L12">
-        <v>0.1353699141565714</v>
-      </c>
-      <c r="M12">
-        <v>5.190632355263537E-05</v>
-      </c>
-      <c r="N12">
-        <v>0.1353699141565709</v>
-      </c>
-      <c r="O12">
-        <v>1.31633189883816</v>
-      </c>
-      <c r="P12">
-        <v>0.4543621109275845</v>
-      </c>
-      <c r="Q12">
-        <v>0.1786038163860654</v>
-      </c>
-      <c r="R12">
-        <v>1.294252663780376</v>
-      </c>
-      <c r="S12">
-        <v>0.2357903936137166</v>
-      </c>
-      <c r="T12">
-        <v>1.367741377955286</v>
+      <c r="D12" s="1">
+        <v>0.0100897270525572</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.821731897047214</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.007131058935610058</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.01752619165882355</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2.733406780273269</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.0309867296100948</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.93651096581199</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2.911054507922101</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.007155010179999642</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.1354055892860337</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5.18926478630097E-05</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.1354055892860333</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1.318061540309394</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.4537658690026182</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.1784094620679704</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1.295662586723902</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0.2344069680057224</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1.375813528981661</v>
       </c>
     </row>
   </sheetData>

--- a/data/Yting_260321_20210326-103027/Ratios.xlsx
+++ b/data/Yting_260321_20210326-103027/Ratios.xlsx
@@ -426,11 +426,11 @@
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" customWidth="1"/>
@@ -514,22 +514,22 @@
         <v>10815</v>
       </c>
       <c r="B2" s="1">
-        <v>-105.543252184767</v>
+        <v>-105.0186587994327</v>
       </c>
       <c r="C2" s="1">
-        <v>0.001522748921522226</v>
+        <v>0.001394216645093658</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01033884581771135</v>
+        <v>0.01038754557826584</v>
       </c>
       <c r="E2" s="1">
-        <v>2.500104217627813</v>
+        <v>2.407725428309564</v>
       </c>
       <c r="F2" s="1">
-        <v>0.007165398358242347</v>
+        <v>0.007165371038140272</v>
       </c>
       <c r="G2" s="1">
-        <v>0.01478933245368997</v>
+        <v>0.01383412416547555</v>
       </c>
       <c r="H2" s="1">
         <v>2.732032438034333</v>
@@ -538,28 +538,28 @@
         <v>0.0231703806893276</v>
       </c>
       <c r="J2" s="1">
-        <v>1.789684977792535</v>
+        <v>1.785373597253538</v>
       </c>
       <c r="K2" s="1">
-        <v>2.604203802875942</v>
+        <v>2.477129940980038</v>
       </c>
       <c r="L2" s="1">
-        <v>0.006779213643547647</v>
+        <v>0.006783189610685084</v>
       </c>
       <c r="M2" s="1">
-        <v>0.1702428792942347</v>
+        <v>0.1557816438076128</v>
       </c>
       <c r="N2" s="1">
-        <v>4.916713429368548E-05</v>
+        <v>4.919597051577146E-05</v>
       </c>
       <c r="O2" s="1">
-        <v>0.1702428792942349</v>
+        <v>0.1557816438076122</v>
       </c>
       <c r="P2" s="1">
-        <v>1.318828763693015</v>
+        <v>1.318266233615171</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.5334996389483724</v>
+        <v>0.4996195995080055</v>
       </c>
       <c r="R2" s="1">
         <v>0.1702371670050599</v>
@@ -582,61 +582,61 @@
         <v>0.8844531054512661</v>
       </c>
       <c r="C3">
-        <v>0.002107527865453386</v>
+        <v>0.001462158339641043</v>
       </c>
       <c r="D3">
-        <v>0.01001464435336744</v>
+        <v>0.01001010534216303</v>
       </c>
       <c r="E3">
-        <v>3.988986395410593</v>
+        <v>0.2705721945842741</v>
       </c>
       <c r="F3">
-        <v>0.007159443268110569</v>
+        <v>0.007159407857790207</v>
       </c>
       <c r="G3">
-        <v>0.2433412122966173</v>
+        <v>0.01685308638485903</v>
       </c>
       <c r="H3">
-        <v>0.2087949818774892</v>
+        <v>0.2088051653189094</v>
       </c>
       <c r="I3">
-        <v>2.784202105567774</v>
+        <v>0.01112895963378528</v>
       </c>
       <c r="J3">
-        <v>0.157989250425516</v>
+        <v>0.1580058902368658</v>
       </c>
       <c r="K3">
-        <v>2.214395630898379</v>
+        <v>0.3302292922158004</v>
       </c>
       <c r="L3">
         <v>0.007585844208432104</v>
       </c>
       <c r="M3">
-        <v>0.2105665503060151</v>
+        <v>0.1460866271930168</v>
       </c>
       <c r="N3">
         <v>5.501732804688176E-05</v>
       </c>
       <c r="O3">
-        <v>0.2105665503060163</v>
+        <v>0.1460866271930185</v>
       </c>
       <c r="P3">
-        <v>0.03525242983938701</v>
+        <v>0.03530263343077672</v>
       </c>
       <c r="Q3">
-        <v>5.704968934028837</v>
+        <v>0.5741118793176037</v>
       </c>
       <c r="R3">
-        <v>0.3294613250209388</v>
+        <v>0.3294964168436361</v>
       </c>
       <c r="S3">
-        <v>1.213265190703177</v>
+        <v>0.475456940997123</v>
       </c>
       <c r="T3">
-        <v>0.01156532438814214</v>
+        <v>0.01157330027557621</v>
       </c>
       <c r="U3">
-        <v>0.7783703733365183</v>
+        <v>0.6767519570419765</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
@@ -668,10 +668,10 @@
         <v>0.02835613263148951</v>
       </c>
       <c r="J4" s="1">
-        <v>1.859434291774539</v>
+        <v>1.85670116660036</v>
       </c>
       <c r="K4" s="1">
-        <v>3.020502513438849</v>
+        <v>2.811905899864207</v>
       </c>
       <c r="L4" s="1">
         <v>0.006786684328291145</v>
@@ -698,10 +698,10 @@
         <v>1.288866266384345</v>
       </c>
       <c r="T4" s="1">
-        <v>0.2271473406066673</v>
+        <v>0.2261153342001087</v>
       </c>
       <c r="U4" s="1">
-        <v>1.004207197291201</v>
+        <v>0.9055556712421337</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -709,46 +709,46 @@
         <v>11070</v>
       </c>
       <c r="B5">
-        <v>-5.839721199914383</v>
+        <v>-5.677894834538955</v>
       </c>
       <c r="C5">
-        <v>0.004968873446402618</v>
+        <v>0.004753344390880109</v>
       </c>
       <c r="D5">
-        <v>0.0100333743049465</v>
+        <v>0.01003234062190296</v>
       </c>
       <c r="E5">
-        <v>0.4349619753938642</v>
+        <v>0.3965353853208085</v>
       </c>
       <c r="F5">
-        <v>0.007142862075553487</v>
+        <v>0.007143758235223924</v>
       </c>
       <c r="G5">
-        <v>0.1244576487916852</v>
+        <v>0.1194851431706879</v>
       </c>
       <c r="H5">
-        <v>0.0340967302398382</v>
+        <v>0.03409200322983134</v>
       </c>
       <c r="I5">
-        <v>0.1116689402647859</v>
+        <v>0.09231634582928086</v>
       </c>
       <c r="J5">
-        <v>0.02555085954587517</v>
+        <v>0.02552537483995687</v>
       </c>
       <c r="K5">
-        <v>0.6619543840934289</v>
+        <v>0.6462875691733087</v>
       </c>
       <c r="L5">
-        <v>0.007534880744515183</v>
+        <v>0.007536107249325749</v>
       </c>
       <c r="M5">
-        <v>0.4998060727591998</v>
+        <v>0.4780487496141028</v>
       </c>
       <c r="N5">
-        <v>5.464770885412191E-05</v>
+        <v>5.465660424080004E-05</v>
       </c>
       <c r="O5">
-        <v>0.4998060727591996</v>
+        <v>0.4780487496141027</v>
       </c>
       <c r="P5">
         <v>0.00591597728632103</v>
@@ -763,10 +763,10 @@
         <v>1.318970989813419</v>
       </c>
       <c r="T5">
-        <v>0.001275102235063826</v>
+        <v>0.001271677264708531</v>
       </c>
       <c r="U5">
-        <v>2.976703557238916</v>
+        <v>2.854337908886428</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
@@ -780,22 +780,22 @@
         <v>0.001339707136559376</v>
       </c>
       <c r="D6" s="1">
-        <v>0.009874096501533198</v>
+        <v>0.00986450224752216</v>
       </c>
       <c r="E6" s="1">
-        <v>2.835252277105481</v>
+        <v>2.277046205508533</v>
       </c>
       <c r="F6" s="1">
-        <v>0.007138611252906625</v>
+        <v>0.007138726882609821</v>
       </c>
       <c r="G6" s="1">
-        <v>0.01676710101204121</v>
+        <v>0.01609632358426909</v>
       </c>
       <c r="H6" s="1">
-        <v>2.732088290507844</v>
+        <v>2.732414605005706</v>
       </c>
       <c r="I6" s="1">
-        <v>0.03758627650321703</v>
+        <v>0.03599136947098102</v>
       </c>
       <c r="J6" s="1">
         <v>1.964199288289368</v>
@@ -816,10 +816,10 @@
         <v>0.1429583220526351</v>
       </c>
       <c r="P6" s="1">
-        <v>1.313376020743112</v>
+        <v>1.310348634099677</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.5419099520255938</v>
+        <v>0.4580635472383619</v>
       </c>
       <c r="R6" s="1">
         <v>0.1815114725115821</v>
@@ -828,10 +828,10 @@
         <v>1.276965247862709</v>
       </c>
       <c r="T6" s="1">
-        <v>0.2393297008339995</v>
+        <v>0.2385241130708757</v>
       </c>
       <c r="U6" s="1">
-        <v>1.282651499612487</v>
+        <v>1.183703790531284</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -839,64 +839,64 @@
         <v>11071</v>
       </c>
       <c r="B7">
-        <v>9.546339218875932</v>
+        <v>9.805279824842916</v>
       </c>
       <c r="C7">
-        <v>0.001978891721470877</v>
+        <v>0.001646812446568409</v>
       </c>
       <c r="D7">
-        <v>0.01001478293103228</v>
+        <v>0.01001764294734488</v>
       </c>
       <c r="E7">
-        <v>0.2991249825553106</v>
+        <v>0.2813044678257543</v>
       </c>
       <c r="F7">
-        <v>0.007148360260622351</v>
+        <v>0.007148693221343744</v>
       </c>
       <c r="G7">
-        <v>0.03217013055235829</v>
+        <v>0.0228778314478625</v>
       </c>
       <c r="H7">
-        <v>0.13025665020751</v>
+        <v>0.1302484325367064</v>
       </c>
       <c r="I7">
-        <v>0.0304533949071753</v>
+        <v>0.01754135550282196</v>
       </c>
       <c r="J7">
-        <v>0.09979483482092993</v>
+        <v>0.09974099642232759</v>
       </c>
       <c r="K7">
-        <v>0.4047604426046078</v>
+        <v>0.3776327105826159</v>
       </c>
       <c r="L7">
-        <v>0.007651493862998872</v>
+        <v>0.007653456410313908</v>
       </c>
       <c r="M7">
-        <v>0.1960179186031241</v>
+        <v>0.1630821782645124</v>
       </c>
       <c r="N7">
-        <v>5.549346075963237E-05</v>
+        <v>5.550769439091613E-05</v>
       </c>
       <c r="O7">
-        <v>0.1960179186031242</v>
+        <v>0.1630821782645125</v>
       </c>
       <c r="P7">
         <v>0.0178350442126846</v>
       </c>
       <c r="Q7">
-        <v>1.001637272163748</v>
+        <v>0.7343424369076305</v>
       </c>
       <c r="R7">
-        <v>0.249544100283467</v>
+        <v>0.2494257156601883</v>
       </c>
       <c r="S7">
-        <v>0.5610059207786317</v>
+        <v>0.4350413828874493</v>
       </c>
       <c r="T7">
-        <v>0.004458868121831113</v>
+        <v>0.004460132575595221</v>
       </c>
       <c r="U7">
-        <v>0.6951140999644831</v>
+        <v>0.6238411729082407</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
@@ -904,10 +904,10 @@
         <v>10815</v>
       </c>
       <c r="B8" s="1">
-        <v>-75.86083758120998</v>
+        <v>-75.96936184738034</v>
       </c>
       <c r="C8" s="1">
-        <v>0.001344655020757129</v>
+        <v>0.001196465965984011</v>
       </c>
       <c r="D8" s="1">
         <v>0.01004572493302904</v>
@@ -916,34 +916,34 @@
         <v>1.992442478963868</v>
       </c>
       <c r="F8" s="1">
-        <v>0.007147061784218761</v>
+        <v>0.007147111487659842</v>
       </c>
       <c r="G8" s="1">
-        <v>0.0136597412716</v>
+        <v>0.01296621228790215</v>
       </c>
       <c r="H8" s="1">
-        <v>2.732115343543472</v>
+        <v>2.732177308323086</v>
       </c>
       <c r="I8" s="1">
-        <v>0.03047388671108196</v>
+        <v>0.02938732487166546</v>
       </c>
       <c r="J8" s="1">
-        <v>1.909622255286029</v>
+        <v>1.906776982793518</v>
       </c>
       <c r="K8" s="1">
-        <v>2.058287584107706</v>
+        <v>1.960751381621827</v>
       </c>
       <c r="L8" s="1">
-        <v>0.007004180843521679</v>
+        <v>0.00700335832282666</v>
       </c>
       <c r="M8" s="1">
-        <v>0.145503521053876</v>
+        <v>0.1294833652243457</v>
       </c>
       <c r="N8" s="1">
-        <v>5.079873835787148E-05</v>
+        <v>5.07927729188696E-05</v>
       </c>
       <c r="O8" s="1">
-        <v>0.1455035210538751</v>
+        <v>0.1294833652243459</v>
       </c>
       <c r="P8" s="1">
         <v>1.313894569432621</v>
@@ -969,10 +969,10 @@
         <v>11072</v>
       </c>
       <c r="B9">
-        <v>12.36075644313317</v>
+        <v>12.50628016717603</v>
       </c>
       <c r="C9">
-        <v>0.001617865900988797</v>
+        <v>0.001558686431106383</v>
       </c>
       <c r="D9">
         <v>0.01002841579556259</v>
@@ -987,34 +987,34 @@
         <v>0.01362284789174124</v>
       </c>
       <c r="H9">
-        <v>0.3862560754627928</v>
+        <v>0.3862548064806442</v>
       </c>
       <c r="I9">
-        <v>0.008381937270669283</v>
+        <v>0.008152977527140797</v>
       </c>
       <c r="J9">
-        <v>0.2950203981457464</v>
+        <v>0.2950687037818607</v>
       </c>
       <c r="K9">
-        <v>0.2452953080741899</v>
+        <v>0.2331444650806202</v>
       </c>
       <c r="L9">
-        <v>0.007672824727450308</v>
+        <v>0.00767392767224658</v>
       </c>
       <c r="M9">
-        <v>0.1598112027448657</v>
+        <v>0.1539433840201981</v>
       </c>
       <c r="N9">
-        <v>5.564816564610286E-05</v>
+        <v>5.56561648976043E-05</v>
       </c>
       <c r="O9">
-        <v>0.1598112027448663</v>
+        <v>0.1539433840201986</v>
       </c>
       <c r="P9">
-        <v>0.1439144830952803</v>
+        <v>0.1438951808473024</v>
       </c>
       <c r="Q9">
-        <v>0.3545939382889378</v>
+        <v>0.344759768762032</v>
       </c>
       <c r="R9">
         <v>0.01854280137926809</v>
@@ -1034,46 +1034,46 @@
         <v>10815</v>
       </c>
       <c r="B10" s="1">
-        <v>-71.44487965943026</v>
+        <v>-71.68086033921273</v>
       </c>
       <c r="C10" s="1">
-        <v>0.001324340229563539</v>
+        <v>0.001136282974972528</v>
       </c>
       <c r="D10" s="1">
-        <v>0.009704301232877284</v>
+        <v>0.009699215988684057</v>
       </c>
       <c r="E10" s="1">
-        <v>2.952408997433019</v>
+        <v>2.736312935203559</v>
       </c>
       <c r="F10" s="1">
         <v>0.007142544835425622</v>
       </c>
       <c r="G10" s="1">
-        <v>0.01643770650865622</v>
+        <v>0.01444293423494936</v>
       </c>
       <c r="H10" s="1">
-        <v>2.730916960379401</v>
+        <v>2.730689532083137</v>
       </c>
       <c r="I10" s="1">
-        <v>0.02987894985692672</v>
+        <v>0.025536828859068</v>
       </c>
       <c r="J10" s="1">
-        <v>1.978969540598102</v>
+        <v>1.947669624929645</v>
       </c>
       <c r="K10" s="1">
-        <v>2.995900406725089</v>
+        <v>2.752131066180085</v>
       </c>
       <c r="L10" s="1">
-        <v>0.007037650010438674</v>
+        <v>0.007035861479637265</v>
       </c>
       <c r="M10" s="1">
-        <v>0.1426237603512209</v>
+        <v>0.1224021919215969</v>
       </c>
       <c r="N10" s="1">
-        <v>5.104147787177837E-05</v>
+        <v>5.102850631803704E-05</v>
       </c>
       <c r="O10" s="1">
-        <v>0.1426237603512225</v>
+        <v>0.1224021919215985</v>
       </c>
       <c r="P10" s="1">
         <v>1.313401030074132</v>
@@ -1102,49 +1102,49 @@
         <v>83.8017189331639</v>
       </c>
       <c r="C11">
-        <v>0.001280124441955429</v>
+        <v>0.001182330654995277</v>
       </c>
       <c r="D11">
-        <v>0.009527788728580266</v>
+        <v>0.009527343348275775</v>
       </c>
       <c r="E11">
-        <v>0.3030891627036431</v>
+        <v>0.2941802350099582</v>
       </c>
       <c r="F11">
-        <v>0.007134218452142054</v>
+        <v>0.00713422969787728</v>
       </c>
       <c r="G11">
-        <v>0.01409245919554022</v>
+        <v>0.01412411070183477</v>
       </c>
       <c r="H11">
-        <v>0.4493095712755549</v>
+        <v>0.4493172398986127</v>
       </c>
       <c r="I11">
-        <v>0.009845085273641255</v>
+        <v>0.008965462294603262</v>
       </c>
       <c r="J11">
-        <v>0.3879811114348265</v>
+        <v>0.3880735022186643</v>
       </c>
       <c r="K11">
-        <v>0.3356162693401005</v>
+        <v>0.3234771529929047</v>
       </c>
       <c r="L11">
         <v>0.008214285842035851</v>
       </c>
       <c r="M11">
-        <v>0.1181142656994033</v>
+        <v>0.1090910481447744</v>
       </c>
       <c r="N11">
         <v>5.957518325248473E-05</v>
       </c>
       <c r="O11">
-        <v>0.1181142656994044</v>
+        <v>0.109091048144775</v>
       </c>
       <c r="P11">
-        <v>0.1435004739645551</v>
+        <v>0.1434956755345256</v>
       </c>
       <c r="Q11">
-        <v>0.3364125203266247</v>
+        <v>0.3261810100666324</v>
       </c>
       <c r="R11">
         <v>0.0009632431920858298</v>
@@ -1164,16 +1164,16 @@
         <v>10815</v>
       </c>
       <c r="B12" s="1">
-        <v>-55.96025251709802</v>
+        <v>-56.26956278933803</v>
       </c>
       <c r="C12" s="1">
-        <v>0.001278282583173604</v>
+        <v>0.001209043544439854</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0100897270525572</v>
+        <v>0.009991984838521359</v>
       </c>
       <c r="E12" s="1">
-        <v>2.821731897047214</v>
+        <v>2.731510226260651</v>
       </c>
       <c r="F12" s="1">
         <v>0.007131058935610058</v>
@@ -1182,10 +1182,10 @@
         <v>0.01752619165882355</v>
       </c>
       <c r="H12" s="1">
-        <v>2.733406780273269</v>
+        <v>2.733091920500839</v>
       </c>
       <c r="I12" s="1">
-        <v>0.0309867296100948</v>
+        <v>0.02803732151995229</v>
       </c>
       <c r="J12" s="1">
         <v>1.93651096581199</v>
@@ -1194,16 +1194,16 @@
         <v>2.911054507922101</v>
       </c>
       <c r="L12" s="1">
-        <v>0.007155010179999642</v>
+        <v>0.007152665873891178</v>
       </c>
       <c r="M12" s="1">
-        <v>0.1354055892860337</v>
+        <v>0.1281132298766759</v>
       </c>
       <c r="N12" s="1">
-        <v>5.18926478630097E-05</v>
+        <v>5.18756454761075E-05</v>
       </c>
       <c r="O12" s="1">
-        <v>0.1354055892860333</v>
+        <v>0.1281132298766759</v>
       </c>
       <c r="P12" s="1">
         <v>1.318061540309394</v>
@@ -1218,10 +1218,10 @@
         <v>1.295662586723902</v>
       </c>
       <c r="T12" s="1">
-        <v>0.2344069680057224</v>
+        <v>0.2343685903977366</v>
       </c>
       <c r="U12" s="1">
-        <v>1.375813528981661</v>
+        <v>1.28319330596662</v>
       </c>
     </row>
   </sheetData>

--- a/data/Yting_260321_20210326-103027/Ratios.xlsx
+++ b/data/Yting_260321_20210326-103027/Ratios.xlsx
@@ -436,12 +436,12 @@
     <col min="13" max="13" width="20.7109375" customWidth="1"/>
     <col min="14" max="14" width="23.7109375" customWidth="1"/>
     <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
     <col min="17" max="17" width="20.7109375" customWidth="1"/>
     <col min="18" max="18" width="22.7109375" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" customWidth="1"/>
-    <col min="20" max="20" width="22.7109375" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" customWidth="1"/>
+    <col min="20" max="20" width="23.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -514,10 +514,10 @@
         <v>10815</v>
       </c>
       <c r="B2" s="1">
-        <v>-105.0186587994327</v>
+        <v>-105.543252184767</v>
       </c>
       <c r="C2" s="1">
-        <v>0.001394216645093658</v>
+        <v>0.001522748921522226</v>
       </c>
       <c r="D2" s="1">
         <v>0.01038754557826584</v>
@@ -544,22 +544,22 @@
         <v>2.477129940980038</v>
       </c>
       <c r="L2" s="1">
-        <v>0.006783189610685084</v>
+        <v>0.006779213643547647</v>
       </c>
       <c r="M2" s="1">
-        <v>0.1557816438076128</v>
+        <v>0.1702428792942347</v>
       </c>
       <c r="N2" s="1">
-        <v>4.919597051577146E-05</v>
+        <v>4.916713429368548E-05</v>
       </c>
       <c r="O2" s="1">
-        <v>0.1557816438076122</v>
+        <v>0.1702428792942349</v>
       </c>
       <c r="P2" s="1">
-        <v>1.318266233615171</v>
+        <v>1.318826771892574</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.4996195995080055</v>
+        <v>0.5335004453826736</v>
       </c>
       <c r="R2" s="1">
         <v>0.1702371670050599</v>
@@ -568,10 +568,10 @@
         <v>1.612895259779135</v>
       </c>
       <c r="T2" s="1">
-        <v>0.2241705192850406</v>
+        <v>0.2257985771763353</v>
       </c>
       <c r="U2" s="1">
-        <v>1.549838513005388</v>
+        <v>1.726512574742643</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -582,61 +582,61 @@
         <v>0.8844531054512661</v>
       </c>
       <c r="C3">
-        <v>0.001462158339641043</v>
+        <v>0.002107527865453386</v>
       </c>
       <c r="D3">
-        <v>0.01001010534216303</v>
+        <v>0.01001464435336744</v>
       </c>
       <c r="E3">
-        <v>0.2705721945842741</v>
+        <v>3.988986395410593</v>
       </c>
       <c r="F3">
-        <v>0.007159407857790207</v>
+        <v>0.007159443268110569</v>
       </c>
       <c r="G3">
-        <v>0.01685308638485903</v>
+        <v>0.2433412122966173</v>
       </c>
       <c r="H3">
-        <v>0.2088051653189094</v>
+        <v>0.2087949818774892</v>
       </c>
       <c r="I3">
-        <v>0.01112895963378528</v>
+        <v>2.784202105567774</v>
       </c>
       <c r="J3">
-        <v>0.1580058902368658</v>
+        <v>0.157989250425516</v>
       </c>
       <c r="K3">
-        <v>0.3302292922158004</v>
+        <v>2.214395630898379</v>
       </c>
       <c r="L3">
         <v>0.007585844208432104</v>
       </c>
       <c r="M3">
-        <v>0.1460866271930168</v>
+        <v>0.2105665503060151</v>
       </c>
       <c r="N3">
         <v>5.501732804688176E-05</v>
       </c>
       <c r="O3">
-        <v>0.1460866271930185</v>
+        <v>0.2105665503060163</v>
       </c>
       <c r="P3">
-        <v>0.03530263343077672</v>
+        <v>0.03525043890623247</v>
       </c>
       <c r="Q3">
-        <v>0.5741118793176037</v>
+        <v>5.705288904693922</v>
       </c>
       <c r="R3">
-        <v>0.3294964168436361</v>
+        <v>0.3294613250209388</v>
       </c>
       <c r="S3">
-        <v>0.475456940997123</v>
+        <v>1.213265190703177</v>
       </c>
       <c r="T3">
-        <v>0.01157330027557621</v>
+        <v>0.01157264535611715</v>
       </c>
       <c r="U3">
-        <v>0.6767519570419765</v>
+        <v>2.453371522281945</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
@@ -686,10 +686,10 @@
         <v>0.1328349426970759</v>
       </c>
       <c r="P4" s="1">
-        <v>1.318761168748879</v>
+        <v>1.318759177757272</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.6996302978996222</v>
+        <v>0.6996313538309004</v>
       </c>
       <c r="R4" s="1">
         <v>0.1720259765033036</v>
@@ -698,10 +698,10 @@
         <v>1.288866266384345</v>
       </c>
       <c r="T4" s="1">
-        <v>0.2261153342001087</v>
+        <v>0.2271470050020687</v>
       </c>
       <c r="U4" s="1">
-        <v>0.9055556712421337</v>
+        <v>1.004207089032775</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -709,64 +709,64 @@
         <v>11070</v>
       </c>
       <c r="B5">
-        <v>-5.677894834538955</v>
+        <v>-5.745885478354085</v>
       </c>
       <c r="C5">
-        <v>0.004753344390880109</v>
+        <v>0.005078261061152813</v>
       </c>
       <c r="D5">
-        <v>0.01003234062190296</v>
+        <v>0.0100333743049465</v>
       </c>
       <c r="E5">
-        <v>0.3965353853208085</v>
+        <v>0.4349619753938642</v>
       </c>
       <c r="F5">
-        <v>0.007143758235223924</v>
+        <v>0.007142862075553487</v>
       </c>
       <c r="G5">
-        <v>0.1194851431706879</v>
+        <v>0.1244576487916852</v>
       </c>
       <c r="H5">
-        <v>0.03409200322983134</v>
+        <v>0.0340962603054759</v>
       </c>
       <c r="I5">
-        <v>0.09231634582928086</v>
+        <v>0.09998252009169473</v>
       </c>
       <c r="J5">
         <v>0.02552537483995687</v>
       </c>
       <c r="K5">
-        <v>0.6462875691733087</v>
+        <v>0.6842968537354914</v>
       </c>
       <c r="L5">
-        <v>0.007536107249325749</v>
+        <v>0.007535591938662253</v>
       </c>
       <c r="M5">
-        <v>0.4780487496141028</v>
+        <v>0.5107608796364962</v>
       </c>
       <c r="N5">
-        <v>5.465660424080004E-05</v>
+        <v>5.465286688276307E-05</v>
       </c>
       <c r="O5">
-        <v>0.4780487496141027</v>
+        <v>0.5107608796364961</v>
       </c>
       <c r="P5">
-        <v>0.00591597728632103</v>
+        <v>0.005921825770778144</v>
       </c>
       <c r="Q5">
-        <v>2.735472217248397</v>
+        <v>2.813032265449945</v>
       </c>
       <c r="R5">
-        <v>0.2258773629259085</v>
+        <v>0.2259939097674143</v>
       </c>
       <c r="S5">
-        <v>1.318970989813419</v>
+        <v>1.381875981856847</v>
       </c>
       <c r="T5">
-        <v>0.001271677264708531</v>
+        <v>0.001274691673562648</v>
       </c>
       <c r="U5">
-        <v>2.854337908886428</v>
+        <v>2.97747271498213</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
@@ -783,19 +783,19 @@
         <v>0.00986450224752216</v>
       </c>
       <c r="E6" s="1">
-        <v>2.277046205508533</v>
+        <v>2.657062243021936</v>
       </c>
       <c r="F6" s="1">
-        <v>0.007138726882609821</v>
+        <v>0.007138611252906625</v>
       </c>
       <c r="G6" s="1">
-        <v>0.01609632358426909</v>
+        <v>0.01676710101204121</v>
       </c>
       <c r="H6" s="1">
-        <v>2.732414605005706</v>
+        <v>2.732088290507844</v>
       </c>
       <c r="I6" s="1">
-        <v>0.03599136947098102</v>
+        <v>0.03758627650321703</v>
       </c>
       <c r="J6" s="1">
         <v>1.964199288289368</v>
@@ -816,10 +816,10 @@
         <v>0.1429583220526351</v>
       </c>
       <c r="P6" s="1">
-        <v>1.310348634099677</v>
+        <v>1.313374031600917</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.4580635472383619</v>
+        <v>0.5419107723895897</v>
       </c>
       <c r="R6" s="1">
         <v>0.1815114725115821</v>
@@ -828,10 +828,10 @@
         <v>1.276965247862709</v>
       </c>
       <c r="T6" s="1">
-        <v>0.2385241130708757</v>
+        <v>0.2393293430170869</v>
       </c>
       <c r="U6" s="1">
-        <v>1.183703790531284</v>
+        <v>1.28265146190901</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -839,64 +839,64 @@
         <v>11071</v>
       </c>
       <c r="B7">
-        <v>9.805279824842916</v>
+        <v>9.546339218875932</v>
       </c>
       <c r="C7">
-        <v>0.001646812446568409</v>
+        <v>0.001978891721470877</v>
       </c>
       <c r="D7">
-        <v>0.01001764294734488</v>
+        <v>0.01001478293103228</v>
       </c>
       <c r="E7">
-        <v>0.2813044678257543</v>
+        <v>0.2991249825553106</v>
       </c>
       <c r="F7">
-        <v>0.007148693221343744</v>
+        <v>0.007148360260622351</v>
       </c>
       <c r="G7">
-        <v>0.0228778314478625</v>
+        <v>0.03217013055235829</v>
       </c>
       <c r="H7">
-        <v>0.1302484325367064</v>
+        <v>0.13025665020751</v>
       </c>
       <c r="I7">
-        <v>0.01754135550282196</v>
+        <v>0.0304533949071753</v>
       </c>
       <c r="J7">
-        <v>0.09974099642232759</v>
+        <v>0.09979483482092993</v>
       </c>
       <c r="K7">
-        <v>0.3776327105826159</v>
+        <v>0.4047604426046078</v>
       </c>
       <c r="L7">
-        <v>0.007653456410313908</v>
+        <v>0.007651493862998872</v>
       </c>
       <c r="M7">
-        <v>0.1630821782645124</v>
+        <v>0.1960179186031241</v>
       </c>
       <c r="N7">
-        <v>5.550769439091613E-05</v>
+        <v>5.549346075963237E-05</v>
       </c>
       <c r="O7">
-        <v>0.1630821782645125</v>
+        <v>0.1960179186031242</v>
       </c>
       <c r="P7">
-        <v>0.0178350442126846</v>
+        <v>0.01783305396177997</v>
       </c>
       <c r="Q7">
-        <v>0.7343424369076305</v>
+        <v>1.001748480524192</v>
       </c>
       <c r="R7">
-        <v>0.2494257156601883</v>
+        <v>0.249544100283467</v>
       </c>
       <c r="S7">
-        <v>0.4350413828874493</v>
+        <v>0.5610059207786317</v>
       </c>
       <c r="T7">
-        <v>0.004460132575595221</v>
+        <v>0.004458367135931112</v>
       </c>
       <c r="U7">
-        <v>0.6238411729082407</v>
+        <v>0.6951876357866389</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
@@ -904,10 +904,10 @@
         <v>10815</v>
       </c>
       <c r="B8" s="1">
-        <v>-75.96936184738034</v>
+        <v>-75.86083758120998</v>
       </c>
       <c r="C8" s="1">
-        <v>0.001196465965984011</v>
+        <v>0.001344655020757129</v>
       </c>
       <c r="D8" s="1">
         <v>0.01004572493302904</v>
@@ -916,10 +916,10 @@
         <v>1.992442478963868</v>
       </c>
       <c r="F8" s="1">
-        <v>0.007147111487659842</v>
+        <v>0.007147061784218761</v>
       </c>
       <c r="G8" s="1">
-        <v>0.01296621228790215</v>
+        <v>0.0136597412716</v>
       </c>
       <c r="H8" s="1">
         <v>2.732177308323086</v>
@@ -928,28 +928,28 @@
         <v>0.02938732487166546</v>
       </c>
       <c r="J8" s="1">
-        <v>1.906776982793518</v>
+        <v>1.909622255286029</v>
       </c>
       <c r="K8" s="1">
-        <v>1.960751381621827</v>
+        <v>2.058287584107706</v>
       </c>
       <c r="L8" s="1">
-        <v>0.00700335832282666</v>
+        <v>0.007004180843521679</v>
       </c>
       <c r="M8" s="1">
-        <v>0.1294833652243457</v>
+        <v>0.145503521053876</v>
       </c>
       <c r="N8" s="1">
-        <v>5.07927729188696E-05</v>
+        <v>5.079873835787148E-05</v>
       </c>
       <c r="O8" s="1">
-        <v>0.1294833652243459</v>
+        <v>0.1455035210538751</v>
       </c>
       <c r="P8" s="1">
-        <v>1.313894569432621</v>
+        <v>1.313892579368417</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.4004388910101656</v>
+        <v>0.4004394967171863</v>
       </c>
       <c r="R8" s="1">
         <v>0.1792768137488384</v>
@@ -958,10 +958,10 @@
         <v>1.36931034548719</v>
       </c>
       <c r="T8" s="1">
-        <v>0.237419497300097</v>
+        <v>0.2374191339979786</v>
       </c>
       <c r="U8" s="1">
-        <v>1.300845533637271</v>
+        <v>1.300845587375957</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -969,10 +969,10 @@
         <v>11072</v>
       </c>
       <c r="B9">
-        <v>12.50628016717603</v>
+        <v>12.36075644313317</v>
       </c>
       <c r="C9">
-        <v>0.001558686431106383</v>
+        <v>0.001617865900988797</v>
       </c>
       <c r="D9">
         <v>0.01002841579556259</v>
@@ -990,31 +990,31 @@
         <v>0.3862548064806442</v>
       </c>
       <c r="I9">
-        <v>0.008152977527140797</v>
+        <v>0.008632726519021489</v>
       </c>
       <c r="J9">
-        <v>0.2950687037818607</v>
+        <v>0.2950203981457464</v>
       </c>
       <c r="K9">
-        <v>0.2331444650806202</v>
+        <v>0.2452953080741899</v>
       </c>
       <c r="L9">
-        <v>0.00767392767224658</v>
+        <v>0.007672824727450308</v>
       </c>
       <c r="M9">
-        <v>0.1539433840201981</v>
+        <v>0.1598112027448657</v>
       </c>
       <c r="N9">
-        <v>5.56561648976043E-05</v>
+        <v>5.564816564610286E-05</v>
       </c>
       <c r="O9">
-        <v>0.1539433840201986</v>
+        <v>0.1598112027448663</v>
       </c>
       <c r="P9">
-        <v>0.1438951808473024</v>
+        <v>0.1438931916272418</v>
       </c>
       <c r="Q9">
-        <v>0.344759768762032</v>
+        <v>0.365815313729743</v>
       </c>
       <c r="R9">
         <v>0.01854280137926809</v>
@@ -1023,10 +1023,10 @@
         <v>0.2678043872163008</v>
       </c>
       <c r="T9">
-        <v>0.002664819065216426</v>
+        <v>0.002664781889775179</v>
       </c>
       <c r="U9">
-        <v>0.3003097617298618</v>
+        <v>0.3003130595442578</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
@@ -1034,52 +1034,52 @@
         <v>10815</v>
       </c>
       <c r="B10" s="1">
-        <v>-71.68086033921273</v>
+        <v>-71.56286999932171</v>
       </c>
       <c r="C10" s="1">
-        <v>0.001136282974972528</v>
+        <v>0.001234439821687892</v>
       </c>
       <c r="D10" s="1">
-        <v>0.009699215988684057</v>
+        <v>0.009704301232877284</v>
       </c>
       <c r="E10" s="1">
-        <v>2.736312935203559</v>
+        <v>2.952408997433019</v>
       </c>
       <c r="F10" s="1">
         <v>0.007142544835425622</v>
       </c>
       <c r="G10" s="1">
-        <v>0.01444293423494936</v>
+        <v>0.01643770650865622</v>
       </c>
       <c r="H10" s="1">
-        <v>2.730689532083137</v>
+        <v>2.730883348649252</v>
       </c>
       <c r="I10" s="1">
-        <v>0.025536828859068</v>
+        <v>0.02776156534325191</v>
       </c>
       <c r="J10" s="1">
-        <v>1.947669624929645</v>
+        <v>1.978969540598102</v>
       </c>
       <c r="K10" s="1">
-        <v>2.752131066180085</v>
+        <v>2.995900406725089</v>
       </c>
       <c r="L10" s="1">
-        <v>0.007035861479637265</v>
+        <v>0.007036755745037969</v>
       </c>
       <c r="M10" s="1">
-        <v>0.1224021919215969</v>
+        <v>0.1329589028485945</v>
       </c>
       <c r="N10" s="1">
-        <v>5.102850631803704E-05</v>
+        <v>5.10349920949077E-05</v>
       </c>
       <c r="O10" s="1">
-        <v>0.1224021919215985</v>
+        <v>0.1329589028485957</v>
       </c>
       <c r="P10" s="1">
-        <v>1.313401030074132</v>
+        <v>1.312935307459668</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.5610582032256292</v>
+        <v>0.5991393735161512</v>
       </c>
       <c r="R10" s="1">
         <v>0.1781077787529703</v>
@@ -1088,10 +1088,10 @@
         <v>1.347426895188685</v>
       </c>
       <c r="T10" s="1">
-        <v>0.2340801724982518</v>
+        <v>0.2340798179609642</v>
       </c>
       <c r="U10" s="1">
-        <v>1.249551793680257</v>
+        <v>1.249551913334694</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1102,13 +1102,13 @@
         <v>83.8017189331639</v>
       </c>
       <c r="C11">
-        <v>0.001182330654995277</v>
+        <v>0.001280124441955429</v>
       </c>
       <c r="D11">
-        <v>0.009527343348275775</v>
+        <v>0.009527788728580266</v>
       </c>
       <c r="E11">
-        <v>0.2941802350099582</v>
+        <v>0.3030891627036431</v>
       </c>
       <c r="F11">
         <v>0.00713422969787728</v>
@@ -1117,10 +1117,10 @@
         <v>0.01412411070183477</v>
       </c>
       <c r="H11">
-        <v>0.4493172398986127</v>
+        <v>0.4493095712755549</v>
       </c>
       <c r="I11">
-        <v>0.008965462294603262</v>
+        <v>0.009845085273641255</v>
       </c>
       <c r="J11">
         <v>0.3880735022186643</v>
@@ -1132,31 +1132,31 @@
         <v>0.008214285842035851</v>
       </c>
       <c r="M11">
-        <v>0.1090910481447744</v>
+        <v>0.1181142656994033</v>
       </c>
       <c r="N11">
         <v>5.957518325248473E-05</v>
       </c>
       <c r="O11">
-        <v>0.109091048144775</v>
+        <v>0.1181142656994044</v>
       </c>
       <c r="P11">
-        <v>0.1434956755345256</v>
+        <v>0.1434984853044898</v>
       </c>
       <c r="Q11">
-        <v>0.3261810100666324</v>
+        <v>0.3364171721037157</v>
       </c>
       <c r="R11">
-        <v>0.0009632431920858298</v>
+        <v>0.0009631928586580701</v>
       </c>
       <c r="S11">
-        <v>0.2425308994468452</v>
+        <v>0.255338915736973</v>
       </c>
       <c r="T11">
-        <v>0.0001387051772344693</v>
+        <v>0.0001387130736508046</v>
       </c>
       <c r="U11">
-        <v>0.2437602373737419</v>
+        <v>0.2564753741715639</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
@@ -1164,10 +1164,10 @@
         <v>10815</v>
       </c>
       <c r="B12" s="1">
-        <v>-56.26956278933803</v>
+        <v>-55.96025251709802</v>
       </c>
       <c r="C12" s="1">
-        <v>0.001209043544439854</v>
+        <v>0.001278282583173604</v>
       </c>
       <c r="D12" s="1">
         <v>0.009991984838521359</v>
@@ -1182,10 +1182,10 @@
         <v>0.01752619165882355</v>
       </c>
       <c r="H12" s="1">
-        <v>2.733091920500839</v>
+        <v>2.733406780273269</v>
       </c>
       <c r="I12" s="1">
-        <v>0.02803732151995229</v>
+        <v>0.0309867296100948</v>
       </c>
       <c r="J12" s="1">
         <v>1.93651096581199</v>
@@ -1194,22 +1194,22 @@
         <v>2.911054507922101</v>
       </c>
       <c r="L12" s="1">
-        <v>0.007152665873891178</v>
+        <v>0.007155010179999642</v>
       </c>
       <c r="M12" s="1">
-        <v>0.1281132298766759</v>
+        <v>0.1354055892860337</v>
       </c>
       <c r="N12" s="1">
-        <v>5.18756454761075E-05</v>
+        <v>5.18926478630097E-05</v>
       </c>
       <c r="O12" s="1">
-        <v>0.1281132298766759</v>
+        <v>0.1354055892860333</v>
       </c>
       <c r="P12" s="1">
-        <v>1.318061540309394</v>
+        <v>1.318059551970325</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.4537658690026182</v>
+        <v>0.4537665522382115</v>
       </c>
       <c r="R12" s="1">
         <v>0.1784094620679704</v>
@@ -1218,10 +1218,10 @@
         <v>1.295662586723902</v>
       </c>
       <c r="T12" s="1">
-        <v>0.2343685903977366</v>
+        <v>0.2343682381076229</v>
       </c>
       <c r="U12" s="1">
-        <v>1.28319330596662</v>
+        <v>1.283193429135786</v>
       </c>
     </row>
   </sheetData>

--- a/data/Yting_260321_20210326-103027/Ratios.xlsx
+++ b/data/Yting_260321_20210326-103027/Ratios.xlsx
@@ -83,13 +83,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -118,9 +124,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,68 +585,68 @@
         <v>1.726512574742643</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3">
+    <row r="3" spans="1:21" s="2" customFormat="1">
+      <c r="A3" s="2">
         <v>11069</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0.8844531054512661</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.002107527865453386</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.01001464435336744</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>3.988986395410593</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0.007159443268110569</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>0.2433412122966173</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>0.2087949818774892</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>2.784202105567774</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>0.157989250425516</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>2.214395630898379</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>0.007585844208432104</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>0.2105665503060151</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>5.501732804688176E-05</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>0.2105665503060163</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>0.03525043890623247</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <v>5.705288904693922</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="2">
         <v>0.3294613250209388</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="2">
         <v>1.213265190703177</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="2">
         <v>0.01157264535611715</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="2">
         <v>2.453371522281945</v>
       </c>
     </row>
@@ -704,68 +715,68 @@
         <v>1.004207089032775</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5">
+    <row r="5" spans="1:21" s="2" customFormat="1">
+      <c r="A5" s="2">
         <v>11070</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>-5.745885478354085</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.005078261061152813</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.0100333743049465</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0.4349619753938642</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.007142862075553487</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>0.1244576487916852</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>0.0340962603054759</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>0.09998252009169473</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>0.02552537483995687</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>0.6842968537354914</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>0.007535591938662253</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>0.5107608796364962</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>5.465286688276307E-05</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>0.5107608796364961</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <v>0.005921825770778144</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
         <v>2.813032265449945</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="2">
         <v>0.2259939097674143</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="2">
         <v>1.381875981856847</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="2">
         <v>0.001274691673562648</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="2">
         <v>2.97747271498213</v>
       </c>
     </row>
@@ -834,68 +845,68 @@
         <v>1.28265146190901</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7">
+    <row r="7" spans="1:21" s="2" customFormat="1">
+      <c r="A7" s="2">
         <v>11071</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>9.546339218875932</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.001978891721470877</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.01001478293103228</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0.2991249825553106</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0.007148360260622351</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>0.03217013055235829</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>0.13025665020751</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>0.0304533949071753</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>0.09979483482092993</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>0.4047604426046078</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>0.007651493862998872</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>0.1960179186031241</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>5.549346075963237E-05</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>0.1960179186031242</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <v>0.01783305396177997</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="2">
         <v>1.001748480524192</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="2">
         <v>0.249544100283467</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="2">
         <v>0.5610059207786317</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="2">
         <v>0.004458367135931112</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="2">
         <v>0.6951876357866389</v>
       </c>
     </row>
@@ -964,68 +975,68 @@
         <v>1.300845587375957</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9">
+    <row r="9" spans="1:21" s="2" customFormat="1">
+      <c r="A9" s="2">
         <v>11072</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>12.36075644313317</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.001617865900988797</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.01002841579556259</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>0.2201995065723723</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>0.007143815489368317</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>0.01362284789174124</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>0.3862548064806442</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>0.008632726519021489</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>0.2950203981457464</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>0.2452953080741899</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>0.007672824727450308</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <v>0.1598112027448657</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <v>5.564816564610286E-05</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <v>0.1598112027448663</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="2">
         <v>0.1438931916272418</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="2">
         <v>0.365815313729743</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="2">
         <v>0.01854280137926809</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="2">
         <v>0.2678043872163008</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="2">
         <v>0.002664781889775179</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="2">
         <v>0.3003130595442578</v>
       </c>
     </row>
@@ -1094,68 +1105,68 @@
         <v>1.249551913334694</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11">
+    <row r="11" spans="1:21" s="2" customFormat="1">
+      <c r="A11" s="2">
         <v>11074</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>83.8017189331639</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0.001280124441955429</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.009527788728580266</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>0.3030891627036431</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0.00713422969787728</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>0.01412411070183477</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>0.4493095712755549</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>0.009845085273641255</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>0.3880735022186643</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>0.3234771529929047</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>0.008214285842035851</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <v>0.1181142656994033</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="2">
         <v>5.957518325248473E-05</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="2">
         <v>0.1181142656994044</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="2">
         <v>0.1434984853044898</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="2">
         <v>0.3364171721037157</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="2">
         <v>0.0009631928586580701</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="2">
         <v>0.255338915736973</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="2">
         <v>0.0001387130736508046</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="2">
         <v>0.2564753741715639</v>
       </c>
     </row>

--- a/data/Yting_260321_20210326-103027/Ratios.xlsx
+++ b/data/Yting_260321_20210326-103027/Ratios.xlsx
@@ -452,7 +452,7 @@
     <col min="18" max="18" width="22.7109375" customWidth="1"/>
     <col min="19" max="19" width="19.7109375" customWidth="1"/>
     <col min="20" max="20" width="23.7109375" customWidth="1"/>
-    <col min="21" max="21" width="19.7109375" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -567,22 +567,22 @@
         <v>0.1702428792942349</v>
       </c>
       <c r="P2" s="1">
-        <v>1.318826771892574</v>
+        <v>1.319354151196508</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.5335004453826736</v>
+        <v>0.5343093742747557</v>
       </c>
       <c r="R2" s="1">
-        <v>0.1702371670050599</v>
+        <v>0.1699599420043786</v>
       </c>
       <c r="S2" s="1">
-        <v>1.612895259779135</v>
+        <v>1.613124078274292</v>
       </c>
       <c r="T2" s="1">
-        <v>0.2257985771763353</v>
+        <v>0.2255185977717201</v>
       </c>
       <c r="U2" s="1">
-        <v>1.726512574742643</v>
+        <v>1.726602086087542</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1">
@@ -632,22 +632,22 @@
         <v>0.2105665503060163</v>
       </c>
       <c r="P3" s="2">
-        <v>0.03525043890623247</v>
+        <v>0.03508119734104295</v>
       </c>
       <c r="Q3" s="2">
-        <v>5.705288904693922</v>
+        <v>5.699227156799474</v>
       </c>
       <c r="R3" s="2">
-        <v>0.3294613250209388</v>
+        <v>0.3294025880393198</v>
       </c>
       <c r="S3" s="2">
-        <v>1.213265190703177</v>
+        <v>1.214208209894031</v>
       </c>
       <c r="T3" s="2">
-        <v>0.01157264535611715</v>
+        <v>0.01151406902100858</v>
       </c>
       <c r="U3" s="2">
-        <v>2.453371522281945</v>
+        <v>2.442366103886794</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
@@ -697,22 +697,22 @@
         <v>0.1328349426970759</v>
       </c>
       <c r="P4" s="1">
-        <v>1.318759177757272</v>
+        <v>1.319295276746676</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.6996313538309004</v>
+        <v>0.700755786729371</v>
       </c>
       <c r="R4" s="1">
-        <v>0.1720259765033036</v>
+        <v>0.1717532801460375</v>
       </c>
       <c r="S4" s="1">
-        <v>1.288866266384345</v>
+        <v>1.289720296490281</v>
       </c>
       <c r="T4" s="1">
-        <v>0.2271470050020687</v>
+        <v>0.2268636021468044</v>
       </c>
       <c r="U4" s="1">
-        <v>1.004207089032775</v>
+        <v>1.004357317888425</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="2" customFormat="1">
@@ -762,22 +762,22 @@
         <v>0.5107608796364961</v>
       </c>
       <c r="P5" s="2">
-        <v>0.005921825770778144</v>
+        <v>0.005800569700777472</v>
       </c>
       <c r="Q5" s="2">
-        <v>2.813032265449945</v>
+        <v>2.870256697228719</v>
       </c>
       <c r="R5" s="2">
-        <v>0.2259939097674143</v>
+        <v>0.225966131783047</v>
       </c>
       <c r="S5" s="2">
-        <v>1.381875981856847</v>
+        <v>1.381881207195067</v>
       </c>
       <c r="T5" s="2">
-        <v>0.001274691673562648</v>
+        <v>0.001249788646980554</v>
       </c>
       <c r="U5" s="2">
-        <v>2.97747271498213</v>
+        <v>3.023219177889351</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
@@ -827,22 +827,22 @@
         <v>0.1429583220526351</v>
       </c>
       <c r="P6" s="1">
-        <v>1.313374031600917</v>
+        <v>1.313872396141101</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.5419107723895897</v>
+        <v>0.5427985995815223</v>
       </c>
       <c r="R6" s="1">
-        <v>0.1815114725115821</v>
+        <v>0.181231969044914</v>
       </c>
       <c r="S6" s="1">
-        <v>1.276965247862709</v>
+        <v>1.277445604693938</v>
       </c>
       <c r="T6" s="1">
-        <v>0.2393293430170869</v>
+        <v>0.2390518927769061</v>
       </c>
       <c r="U6" s="1">
-        <v>1.28265146190901</v>
+        <v>1.282867073244825</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="2" customFormat="1">
@@ -892,22 +892,22 @@
         <v>0.1960179186031242</v>
       </c>
       <c r="P7" s="2">
-        <v>0.01783305396177997</v>
+        <v>0.01772214606612332</v>
       </c>
       <c r="Q7" s="2">
-        <v>1.001748480524192</v>
+        <v>1.007265011142688</v>
       </c>
       <c r="R7" s="2">
-        <v>0.249544100283467</v>
+        <v>0.249516127586646</v>
       </c>
       <c r="S7" s="2">
-        <v>0.5610059207786317</v>
+        <v>0.5610571919223687</v>
       </c>
       <c r="T7" s="2">
-        <v>0.004458367135931112</v>
+        <v>0.004430472498451357</v>
       </c>
       <c r="U7" s="2">
-        <v>0.6951876357866389</v>
+        <v>0.6991204502526103</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
@@ -957,22 +957,22 @@
         <v>0.1455035210538751</v>
       </c>
       <c r="P8" s="1">
-        <v>1.313892579368417</v>
+        <v>1.31437756824995</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.4004394967171863</v>
+        <v>0.4010354484850985</v>
       </c>
       <c r="R8" s="1">
-        <v>0.1792768137488384</v>
+        <v>0.1790024332032209</v>
       </c>
       <c r="S8" s="1">
-        <v>1.36931034548719</v>
+        <v>1.369577648543971</v>
       </c>
       <c r="T8" s="1">
-        <v>0.2374191339979786</v>
+        <v>0.237144123290771</v>
       </c>
       <c r="U8" s="1">
-        <v>1.300845587375957</v>
+        <v>1.300904984569476</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="2" customFormat="1">
@@ -1022,22 +1022,22 @@
         <v>0.1598112027448663</v>
       </c>
       <c r="P9" s="2">
-        <v>0.1438931916272418</v>
+        <v>0.1435039070995674</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.365815313729743</v>
+        <v>0.3667519741005789</v>
       </c>
       <c r="R9" s="2">
-        <v>0.01854280137926809</v>
+        <v>0.01853434975554646</v>
       </c>
       <c r="S9" s="2">
-        <v>0.2678043872163008</v>
+        <v>0.2678958047286344</v>
       </c>
       <c r="T9" s="2">
-        <v>0.002664781889775179</v>
+        <v>0.002656456282872149</v>
       </c>
       <c r="U9" s="2">
-        <v>0.3003130595442578</v>
+        <v>0.3014671536941368</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
@@ -1087,22 +1087,22 @@
         <v>0.1329589028485957</v>
       </c>
       <c r="P10" s="1">
-        <v>1.312935307459668</v>
+        <v>1.313423515094221</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.5991393735161512</v>
+        <v>0.6000345397267552</v>
       </c>
       <c r="R10" s="1">
-        <v>0.1781077787529703</v>
+        <v>0.1778374152229192</v>
       </c>
       <c r="S10" s="1">
-        <v>1.347426895188685</v>
+        <v>1.347700761114009</v>
       </c>
       <c r="T10" s="1">
-        <v>0.2340798179609642</v>
+        <v>0.2338113376116541</v>
       </c>
       <c r="U10" s="1">
-        <v>1.249551913334694</v>
+        <v>1.249485075210555</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="2" customFormat="1">
@@ -1152,22 +1152,22 @@
         <v>0.1181142656994044</v>
       </c>
       <c r="P11" s="2">
-        <v>0.1434984853044898</v>
+        <v>0.1431288548060866</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.3364171721037157</v>
+        <v>0.3371065744325605</v>
       </c>
       <c r="R11" s="2">
-        <v>0.0009631928586580701</v>
+        <v>0.0009627681596341573</v>
       </c>
       <c r="S11" s="2">
-        <v>0.255338915736973</v>
+        <v>0.2554890408774075</v>
       </c>
       <c r="T11" s="2">
-        <v>0.0001387130736508046</v>
+        <v>0.0001382911205746749</v>
       </c>
       <c r="U11" s="2">
-        <v>0.2564753741715639</v>
+        <v>0.2574720496270163</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
@@ -1217,22 +1217,22 @@
         <v>0.1354055892860333</v>
       </c>
       <c r="P12" s="1">
-        <v>1.318059551970325</v>
+        <v>1.318565502507402</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.4537665522382115</v>
+        <v>0.4544712691125686</v>
       </c>
       <c r="R12" s="1">
-        <v>0.1784094620679704</v>
+        <v>0.1781347151424396</v>
       </c>
       <c r="S12" s="1">
-        <v>1.295662586723902</v>
+        <v>1.295526126832855</v>
       </c>
       <c r="T12" s="1">
-        <v>0.2343682381076229</v>
+        <v>0.2340996154520834</v>
       </c>
       <c r="U12" s="1">
-        <v>1.283193429135786</v>
+        <v>1.282918122977668</v>
       </c>
     </row>
   </sheetData>

--- a/data/Yting_260321_20210326-103027/Ratios.xlsx
+++ b/data/Yting_260321_20210326-103027/Ratios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>Lab. #</t>
   </si>
@@ -77,6 +77,24 @@
   </si>
   <si>
     <t>Error (%) 230/232</t>
+  </si>
+  <si>
+    <t>10815a</t>
+  </si>
+  <si>
+    <t>11069b</t>
+  </si>
+  <si>
+    <t>11070a</t>
+  </si>
+  <si>
+    <t>11071a</t>
+  </si>
+  <si>
+    <t>11072a</t>
+  </si>
+  <si>
+    <t>11074b</t>
   </si>
 </sst>
 </file>
@@ -452,7 +470,7 @@
     <col min="18" max="18" width="22.7109375" customWidth="1"/>
     <col min="19" max="19" width="19.7109375" customWidth="1"/>
     <col min="20" max="20" width="23.7109375" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -521,8 +539,8 @@
       </c>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1">
-      <c r="A2" s="1">
-        <v>10815</v>
+      <c r="A2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>-105.543252184767</v>
@@ -567,27 +585,27 @@
         <v>0.1702428792942349</v>
       </c>
       <c r="P2" s="1">
-        <v>1.319354151196508</v>
+        <v>1.318826771892574</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.5343093742747557</v>
+        <v>0.5335004453826736</v>
       </c>
       <c r="R2" s="1">
-        <v>0.1699599420043786</v>
+        <v>0.1702371670050599</v>
       </c>
       <c r="S2" s="1">
-        <v>1.613124078274292</v>
+        <v>1.612895259779135</v>
       </c>
       <c r="T2" s="1">
-        <v>0.2255185977717201</v>
+        <v>0.2257985771763353</v>
       </c>
       <c r="U2" s="1">
-        <v>1.726602086087542</v>
+        <v>1.726512574742643</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1">
-      <c r="A3" s="2">
-        <v>11069</v>
+      <c r="A3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="2">
         <v>0.8844531054512661</v>
@@ -632,27 +650,27 @@
         <v>0.2105665503060163</v>
       </c>
       <c r="P3" s="2">
-        <v>0.03508119734104295</v>
+        <v>0.03525043890623247</v>
       </c>
       <c r="Q3" s="2">
-        <v>5.699227156799474</v>
+        <v>5.705288904693922</v>
       </c>
       <c r="R3" s="2">
-        <v>0.3294025880393198</v>
+        <v>0.3294613250209388</v>
       </c>
       <c r="S3" s="2">
-        <v>1.214208209894031</v>
+        <v>1.213265190703177</v>
       </c>
       <c r="T3" s="2">
-        <v>0.01151406902100858</v>
+        <v>0.01157264535611715</v>
       </c>
       <c r="U3" s="2">
-        <v>2.442366103886794</v>
+        <v>2.453371522281945</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
-      <c r="A4" s="1">
-        <v>10815</v>
+      <c r="A4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>-104.5575619954658</v>
@@ -697,27 +715,27 @@
         <v>0.1328349426970759</v>
       </c>
       <c r="P4" s="1">
-        <v>1.319295276746676</v>
+        <v>1.318759177757272</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.700755786729371</v>
+        <v>0.6996313538309004</v>
       </c>
       <c r="R4" s="1">
-        <v>0.1717532801460375</v>
+        <v>0.1720259765033036</v>
       </c>
       <c r="S4" s="1">
-        <v>1.289720296490281</v>
+        <v>1.288866266384345</v>
       </c>
       <c r="T4" s="1">
-        <v>0.2268636021468044</v>
+        <v>0.2271470050020687</v>
       </c>
       <c r="U4" s="1">
-        <v>1.004357317888425</v>
+        <v>1.004207089032775</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="2" customFormat="1">
-      <c r="A5" s="2">
-        <v>11070</v>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="2">
         <v>-5.745885478354085</v>
@@ -762,27 +780,27 @@
         <v>0.5107608796364961</v>
       </c>
       <c r="P5" s="2">
-        <v>0.005800569700777472</v>
+        <v>0.005921825770778144</v>
       </c>
       <c r="Q5" s="2">
-        <v>2.870256697228719</v>
+        <v>2.813032265449945</v>
       </c>
       <c r="R5" s="2">
-        <v>0.225966131783047</v>
+        <v>0.2259939097674143</v>
       </c>
       <c r="S5" s="2">
-        <v>1.381881207195067</v>
+        <v>1.381875981856847</v>
       </c>
       <c r="T5" s="2">
-        <v>0.001249788646980554</v>
+        <v>0.001274691673562648</v>
       </c>
       <c r="U5" s="2">
-        <v>3.023219177889351</v>
+        <v>2.97747271498213</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
-      <c r="A6" s="1">
-        <v>10815</v>
+      <c r="A6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>-62.86873172300111</v>
@@ -827,27 +845,27 @@
         <v>0.1429583220526351</v>
       </c>
       <c r="P6" s="1">
-        <v>1.313872396141101</v>
+        <v>1.313374031600917</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.5427985995815223</v>
+        <v>0.5419107723895897</v>
       </c>
       <c r="R6" s="1">
-        <v>0.181231969044914</v>
+        <v>0.1815114725115821</v>
       </c>
       <c r="S6" s="1">
-        <v>1.277445604693938</v>
+        <v>1.276965247862709</v>
       </c>
       <c r="T6" s="1">
-        <v>0.2390518927769061</v>
+        <v>0.2393293430170869</v>
       </c>
       <c r="U6" s="1">
-        <v>1.282867073244825</v>
+        <v>1.28265146190901</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="2" customFormat="1">
-      <c r="A7" s="2">
-        <v>11071</v>
+      <c r="A7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <v>9.546339218875932</v>
@@ -892,27 +910,27 @@
         <v>0.1960179186031242</v>
       </c>
       <c r="P7" s="2">
-        <v>0.01772214606612332</v>
+        <v>0.01783305396177997</v>
       </c>
       <c r="Q7" s="2">
-        <v>1.007265011142688</v>
+        <v>1.001748480524192</v>
       </c>
       <c r="R7" s="2">
-        <v>0.249516127586646</v>
+        <v>0.249544100283467</v>
       </c>
       <c r="S7" s="2">
-        <v>0.5610571919223687</v>
+        <v>0.5610059207786317</v>
       </c>
       <c r="T7" s="2">
-        <v>0.004430472498451357</v>
+        <v>0.004458367135931112</v>
       </c>
       <c r="U7" s="2">
-        <v>0.6991204502526103</v>
+        <v>0.6951876357866389</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
-      <c r="A8" s="1">
-        <v>10815</v>
+      <c r="A8" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>-75.86083758120998</v>
@@ -957,27 +975,27 @@
         <v>0.1455035210538751</v>
       </c>
       <c r="P8" s="1">
-        <v>1.31437756824995</v>
+        <v>1.313892579368417</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.4010354484850985</v>
+        <v>0.4004394967171863</v>
       </c>
       <c r="R8" s="1">
-        <v>0.1790024332032209</v>
+        <v>0.1792768137488384</v>
       </c>
       <c r="S8" s="1">
-        <v>1.369577648543971</v>
+        <v>1.36931034548719</v>
       </c>
       <c r="T8" s="1">
-        <v>0.237144123290771</v>
+        <v>0.2374191339979786</v>
       </c>
       <c r="U8" s="1">
-        <v>1.300904984569476</v>
+        <v>1.300845587375957</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="2" customFormat="1">
-      <c r="A9" s="2">
-        <v>11072</v>
+      <c r="A9" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="2">
         <v>12.36075644313317</v>
@@ -1022,27 +1040,27 @@
         <v>0.1598112027448663</v>
       </c>
       <c r="P9" s="2">
-        <v>0.1435039070995674</v>
+        <v>0.1438931916272418</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.3667519741005789</v>
+        <v>0.365815313729743</v>
       </c>
       <c r="R9" s="2">
-        <v>0.01853434975554646</v>
+        <v>0.01854280137926809</v>
       </c>
       <c r="S9" s="2">
-        <v>0.2678958047286344</v>
+        <v>0.2678043872163008</v>
       </c>
       <c r="T9" s="2">
-        <v>0.002656456282872149</v>
+        <v>0.002664781889775179</v>
       </c>
       <c r="U9" s="2">
-        <v>0.3014671536941368</v>
+        <v>0.3003130595442578</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
-      <c r="A10" s="1">
-        <v>10815</v>
+      <c r="A10" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>-71.56286999932171</v>
@@ -1087,27 +1105,27 @@
         <v>0.1329589028485957</v>
       </c>
       <c r="P10" s="1">
-        <v>1.313423515094221</v>
+        <v>1.312935307459668</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.6000345397267552</v>
+        <v>0.5991393735161512</v>
       </c>
       <c r="R10" s="1">
-        <v>0.1778374152229192</v>
+        <v>0.1781077787529703</v>
       </c>
       <c r="S10" s="1">
-        <v>1.347700761114009</v>
+        <v>1.347426895188685</v>
       </c>
       <c r="T10" s="1">
-        <v>0.2338113376116541</v>
+        <v>0.2340798179609642</v>
       </c>
       <c r="U10" s="1">
-        <v>1.249485075210555</v>
+        <v>1.249551913334694</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="2" customFormat="1">
-      <c r="A11" s="2">
-        <v>11074</v>
+      <c r="A11" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="2">
         <v>83.8017189331639</v>
@@ -1152,27 +1170,27 @@
         <v>0.1181142656994044</v>
       </c>
       <c r="P11" s="2">
-        <v>0.1431288548060866</v>
+        <v>0.1434984853044898</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.3371065744325605</v>
+        <v>0.3364171721037157</v>
       </c>
       <c r="R11" s="2">
-        <v>0.0009627681596341573</v>
+        <v>0.0009631928586580701</v>
       </c>
       <c r="S11" s="2">
-        <v>0.2554890408774075</v>
+        <v>0.255338915736973</v>
       </c>
       <c r="T11" s="2">
-        <v>0.0001382911205746749</v>
+        <v>0.0001387130736508046</v>
       </c>
       <c r="U11" s="2">
-        <v>0.2574720496270163</v>
+        <v>0.2564753741715639</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
-      <c r="A12" s="1">
-        <v>10815</v>
+      <c r="A12" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>-55.96025251709802</v>
@@ -1217,22 +1235,22 @@
         <v>0.1354055892860333</v>
       </c>
       <c r="P12" s="1">
-        <v>1.318565502507402</v>
+        <v>1.318059551970325</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.4544712691125686</v>
+        <v>0.4537665522382115</v>
       </c>
       <c r="R12" s="1">
-        <v>0.1781347151424396</v>
+        <v>0.1784094620679704</v>
       </c>
       <c r="S12" s="1">
-        <v>1.295526126832855</v>
+        <v>1.295662586723902</v>
       </c>
       <c r="T12" s="1">
-        <v>0.2340996154520834</v>
+        <v>0.2343682381076229</v>
       </c>
       <c r="U12" s="1">
-        <v>1.282918122977668</v>
+        <v>1.283193429135786</v>
       </c>
     </row>
   </sheetData>

--- a/data/Yting_260321_20210326-103027/Ratios.xlsx
+++ b/data/Yting_260321_20210326-103027/Ratios.xlsx
@@ -101,13 +101,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -130,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,16 +145,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -473,783 +492,783 @@
     <col min="21" max="21" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>-105.543252184767</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.001522748921522226</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.01038754557826584</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>2.407725428309564</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0.007165371038140272</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>0.01383412416547555</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>2.732032438034333</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>0.0231703806893276</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>1.785373597253538</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>2.477129940980038</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>0.006779213643547647</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <v>0.1702428792942347</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="2">
         <v>4.916713429368548E-05</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="2">
         <v>0.1702428792942349</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="2">
         <v>1.318826771892574</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="2">
         <v>0.5335004453826736</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="2">
         <v>0.1702371670050599</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="2">
         <v>1.612895259779135</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="2">
         <v>0.2257985771763353</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="2">
         <v>1.726512574742643</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:21" s="3" customFormat="1">
+      <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>0.8844531054512661</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>0.002107527865453386</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>0.01001464435336744</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>3.988986395410593</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>0.007159443268110569</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>0.2433412122966173</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>0.2087949818774892</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>2.784202105567774</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>0.157989250425516</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>2.214395630898379</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="3">
         <v>0.007585844208432104</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <v>0.2105665503060151</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="3">
         <v>5.501732804688176E-05</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="3">
         <v>0.2105665503060163</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="3">
         <v>0.03525043890623247</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="3">
         <v>5.705288904693922</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="3">
         <v>0.3294613250209388</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="3">
         <v>1.213265190703177</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="3">
         <v>0.01157264535611715</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="3">
         <v>2.453371522281945</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:21" s="2" customFormat="1">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>-104.5575619954658</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.001189460449408623</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.00989223184460504</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>2.858809185015484</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0.007161589566022354</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>0.01241299182380966</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>2.732801464908563</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>0.02835613263148951</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>1.85670116660036</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <v>2.811905899864207</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <v>0.006786684328291145</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="2">
         <v>0.1328349426970765</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="2">
         <v>4.922131641263948E-05</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="2">
         <v>0.1328349426970759</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="2">
         <v>1.318759177757272</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="2">
         <v>0.6996313538309004</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="2">
         <v>0.1720259765033036</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="2">
         <v>1.288866266384345</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="2">
         <v>0.2271470050020687</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="2">
         <v>1.004207089032775</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:21" s="3" customFormat="1">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>-5.745885478354085</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>0.005078261061152813</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>0.0100333743049465</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>0.4349619753938642</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>0.007142862075553487</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>0.1244576487916852</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>0.0340962603054759</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>0.09998252009169473</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>0.02552537483995687</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>0.6842968537354914</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>0.007535591938662253</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>0.5107608796364962</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="3">
         <v>5.465286688276307E-05</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="3">
         <v>0.5107608796364961</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="3">
         <v>0.005921825770778144</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="3">
         <v>2.813032265449945</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="3">
         <v>0.2259939097674143</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="3">
         <v>1.381875981856847</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="3">
         <v>0.001274691673562648</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="3">
         <v>2.97747271498213</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:21" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>-62.86873172300111</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.001339707136559376</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.00986450224752216</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>2.657062243021936</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0.007138611252906625</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>0.01676710101204121</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>2.732088290507844</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>0.03758627650321703</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>1.964199288289368</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <v>2.59297788964079</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>0.007102649843288874</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
         <v>0.1429583220526354</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="2">
         <v>5.151289766747321E-05</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="2">
         <v>0.1429583220526351</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="2">
         <v>1.313374031600917</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="2">
         <v>0.5419107723895897</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="2">
         <v>0.1815114725115821</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="2">
         <v>1.276965247862709</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="2">
         <v>0.2393293430170869</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="2">
         <v>1.28265146190901</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="2" customFormat="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:21" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>9.546339218875932</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>0.001978891721470877</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>0.01001478293103228</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>0.2991249825553106</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>0.007148360260622351</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>0.03217013055235829</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>0.13025665020751</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>0.0304533949071753</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>0.09979483482092993</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="3">
         <v>0.4047604426046078</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="3">
         <v>0.007651493862998872</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="3">
         <v>0.1960179186031241</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="3">
         <v>5.549346075963237E-05</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="3">
         <v>0.1960179186031242</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="3">
         <v>0.01783305396177997</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="3">
         <v>1.001748480524192</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="3">
         <v>0.249544100283467</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="3">
         <v>0.5610059207786317</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="3">
         <v>0.004458367135931112</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="3">
         <v>0.6951876357866389</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:21" s="2" customFormat="1">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>-75.86083758120998</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>0.001344655020757129</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.01004572493302904</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>1.992442478963868</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0.007147061784218761</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>0.0136597412716</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>2.732177308323086</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>0.02938732487166546</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>1.909622255286029</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <v>2.058287584107706</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <v>0.007004180843521679</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="2">
         <v>0.145503521053876</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="2">
         <v>5.079873835787148E-05</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="2">
         <v>0.1455035210538751</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="2">
         <v>1.313892579368417</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="2">
         <v>0.4004394967171863</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="2">
         <v>0.1792768137488384</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="2">
         <v>1.36931034548719</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="2">
         <v>0.2374191339979786</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="2">
         <v>1.300845587375957</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:21" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>12.36075644313317</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>0.001617865900988797</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>0.01002841579556259</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>0.2201995065723723</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>0.007143815489368317</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>0.01362284789174124</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>0.3862548064806442</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <v>0.008632726519021489</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3">
         <v>0.2950203981457464</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="3">
         <v>0.2452953080741899</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="3">
         <v>0.007672824727450308</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="3">
         <v>0.1598112027448657</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="3">
         <v>5.564816564610286E-05</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="3">
         <v>0.1598112027448663</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="3">
         <v>0.1438931916272418</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="3">
         <v>0.365815313729743</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="3">
         <v>0.01854280137926809</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="3">
         <v>0.2678043872163008</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="3">
         <v>0.002664781889775179</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="3">
         <v>0.3003130595442578</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:21" s="2" customFormat="1">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>-71.56286999932171</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>0.001234439821687892</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0.009704301232877284</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>2.952408997433019</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0.007142544835425622</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>0.01643770650865622</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>2.730883348649252</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>0.02776156534325191</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>1.978969540598102</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <v>2.995900406725089</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <v>0.007036755745037969</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="2">
         <v>0.1329589028485945</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="2">
         <v>5.10349920949077E-05</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="2">
         <v>0.1329589028485957</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="2">
         <v>1.312935307459668</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="2">
         <v>0.5991393735161512</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="2">
         <v>0.1781077787529703</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="2">
         <v>1.347426895188685</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="2">
         <v>0.2340798179609642</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="2">
         <v>1.249551913334694</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:21" s="3" customFormat="1">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>83.8017189331639</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>0.001280124441955429</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>0.009527788728580266</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>0.3030891627036431</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>0.00713422969787728</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>0.01412411070183477</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>0.4493095712755549</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>0.009845085273641255</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <v>0.3880735022186643</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="3">
         <v>0.3234771529929047</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="3">
         <v>0.008214285842035851</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="3">
         <v>0.1181142656994033</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="3">
         <v>5.957518325248473E-05</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="3">
         <v>0.1181142656994044</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="3">
         <v>0.1434984853044898</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="3">
         <v>0.3364171721037157</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="3">
         <v>0.0009631928586580701</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="3">
         <v>0.255338915736973</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="3">
         <v>0.0001387130736508046</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="3">
         <v>0.2564753741715639</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:21" s="2" customFormat="1">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>-55.96025251709802</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>0.001278282583173604</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.009991984838521359</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>2.731510226260651</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0.007131058935610058</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>0.01752619165882355</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>2.733406780273269</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>0.0309867296100948</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>1.93651096581199</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="2">
         <v>2.911054507922101</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
         <v>0.007155010179999642</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="2">
         <v>0.1354055892860337</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="2">
         <v>5.18926478630097E-05</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="2">
         <v>0.1354055892860333</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="2">
         <v>1.318059551970325</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="2">
         <v>0.4537665522382115</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="2">
         <v>0.1784094620679704</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="2">
         <v>1.295662586723902</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="2">
         <v>0.2343682381076229</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="2">
         <v>1.283193429135786</v>
       </c>
     </row>

--- a/data/Yting_260321_20210326-103027/Ratios.xlsx
+++ b/data/Yting_260321_20210326-103027/Ratios.xlsx
@@ -488,7 +488,7 @@
     <col min="17" max="17" width="20.7109375" customWidth="1"/>
     <col min="18" max="18" width="22.7109375" customWidth="1"/>
     <col min="19" max="19" width="19.7109375" customWidth="1"/>
-    <col min="20" max="20" width="23.7109375" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" customWidth="1"/>
     <col min="21" max="21" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -604,22 +604,22 @@
         <v>0.1702428792942349</v>
       </c>
       <c r="P2" s="2">
-        <v>1.318826771892574</v>
+        <v>1.311545646351963</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.5335004453826736</v>
+        <v>0.5314624646829403</v>
       </c>
       <c r="R2" s="2">
-        <v>0.1702371670050599</v>
+        <v>0.17118120129988</v>
       </c>
       <c r="S2" s="2">
-        <v>1.612895259779135</v>
+        <v>1.612128312904708</v>
       </c>
       <c r="T2" s="2">
-        <v>0.2257985771763353</v>
+        <v>0.2257985283109158</v>
       </c>
       <c r="U2" s="2">
-        <v>1.726512574742643</v>
+        <v>1.726512590317885</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="3" customFormat="1">
@@ -669,22 +669,22 @@
         <v>0.2105665503060163</v>
       </c>
       <c r="P3" s="3">
-        <v>0.03525043890623247</v>
+        <v>0.03522926649515275</v>
       </c>
       <c r="Q3" s="3">
-        <v>5.705288904693922</v>
+        <v>5.693201124441734</v>
       </c>
       <c r="R3" s="3">
-        <v>0.3294613250209388</v>
+        <v>0.3296613420644465</v>
       </c>
       <c r="S3" s="3">
-        <v>1.213265190703177</v>
+        <v>1.210058348418021</v>
       </c>
       <c r="T3" s="3">
-        <v>0.01157264535611715</v>
+        <v>0.01157263513266091</v>
       </c>
       <c r="U3" s="3">
-        <v>2.453371522281945</v>
+        <v>2.453369603464564</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="2" customFormat="1">
@@ -734,22 +734,22 @@
         <v>0.1328349426970759</v>
       </c>
       <c r="P4" s="2">
-        <v>1.318759177757272</v>
+        <v>1.311366584465857</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.6996313538309004</v>
+        <v>0.695716825952851</v>
       </c>
       <c r="R4" s="2">
-        <v>0.1720259765033036</v>
+        <v>0.172954589408702</v>
       </c>
       <c r="S4" s="2">
-        <v>1.288866266384345</v>
+        <v>1.285989101452288</v>
       </c>
       <c r="T4" s="2">
-        <v>0.2271470050020687</v>
+        <v>0.2271469555391469</v>
       </c>
       <c r="U4" s="2">
-        <v>1.004207089032775</v>
+        <v>1.004207115162461</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="3" customFormat="1">
@@ -799,22 +799,22 @@
         <v>0.5107608796364961</v>
       </c>
       <c r="P5" s="3">
-        <v>0.005921825770778144</v>
+        <v>0.005919331541588404</v>
       </c>
       <c r="Q5" s="3">
-        <v>2.813032265449945</v>
+        <v>2.812994683903398</v>
       </c>
       <c r="R5" s="3">
-        <v>0.2259939097674143</v>
+        <v>0.2260885021375802</v>
       </c>
       <c r="S5" s="3">
-        <v>1.381875981856847</v>
+        <v>1.381858217885171</v>
       </c>
       <c r="T5" s="3">
-        <v>0.001274691673562648</v>
+        <v>0.001274687244363013</v>
       </c>
       <c r="U5" s="3">
-        <v>2.97747271498213</v>
+        <v>2.977480699240536</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="2" customFormat="1">
@@ -864,22 +864,22 @@
         <v>0.1429583220526351</v>
       </c>
       <c r="P6" s="2">
-        <v>1.313374031600917</v>
+        <v>1.306431210178389</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.5419107723895897</v>
+        <v>0.5384892413853197</v>
       </c>
       <c r="R6" s="2">
-        <v>0.1815114725115821</v>
+        <v>0.1824632656666271</v>
       </c>
       <c r="S6" s="2">
-        <v>1.276965247862709</v>
+        <v>1.275350349221521</v>
       </c>
       <c r="T6" s="2">
-        <v>0.2393293430170869</v>
+        <v>0.239329294593088</v>
       </c>
       <c r="U6" s="2">
-        <v>1.28265146190901</v>
+        <v>1.282651499458469</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="3" customFormat="1">
@@ -929,22 +929,22 @@
         <v>0.1960179186031242</v>
       </c>
       <c r="P7" s="3">
-        <v>0.01783305396177997</v>
+        <v>0.01782614581474324</v>
       </c>
       <c r="Q7" s="3">
-        <v>1.001748480524192</v>
+        <v>1.001696046634265</v>
       </c>
       <c r="R7" s="3">
-        <v>0.249544100283467</v>
+        <v>0.2496393557079514</v>
       </c>
       <c r="S7" s="3">
-        <v>0.5610059207786317</v>
+        <v>0.5608314417700987</v>
       </c>
       <c r="T7" s="3">
-        <v>0.004458367135931112</v>
+        <v>0.004458362267418854</v>
       </c>
       <c r="U7" s="3">
-        <v>0.6951876357866389</v>
+        <v>0.6951883024290437</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="2" customFormat="1">
@@ -994,22 +994,22 @@
         <v>0.1455035210538751</v>
       </c>
       <c r="P8" s="2">
-        <v>1.313892579368417</v>
+        <v>1.307133394122553</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.4004394967171863</v>
+        <v>0.3985664986945726</v>
       </c>
       <c r="R8" s="2">
-        <v>0.1792768137488384</v>
+        <v>0.1802111618208298</v>
       </c>
       <c r="S8" s="2">
-        <v>1.36931034548719</v>
+        <v>1.368412169729564</v>
       </c>
       <c r="T8" s="2">
-        <v>0.2374191339979786</v>
+        <v>0.2374190859997568</v>
       </c>
       <c r="U8" s="2">
-        <v>1.300845587375957</v>
+        <v>1.300845597702918</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="3" customFormat="1">
@@ -1059,22 +1059,22 @@
         <v>0.1598112027448663</v>
       </c>
       <c r="P9" s="3">
-        <v>0.1438931916272418</v>
+        <v>0.1436693283071879</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.365815313729743</v>
+        <v>0.3656952702091088</v>
       </c>
       <c r="R9" s="3">
-        <v>0.01854280137926809</v>
+        <v>0.01857158169352735</v>
       </c>
       <c r="S9" s="3">
-        <v>0.2678043872163008</v>
+        <v>0.2674942102791997</v>
       </c>
       <c r="T9" s="3">
-        <v>0.002664781889775179</v>
+        <v>0.002664780436688747</v>
       </c>
       <c r="U9" s="3">
-        <v>0.3003130595442578</v>
+        <v>0.3003132600935411</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="2" customFormat="1">
@@ -1124,22 +1124,22 @@
         <v>0.1329589028485957</v>
       </c>
       <c r="P10" s="2">
-        <v>1.312935307459668</v>
+        <v>1.306120948283209</v>
       </c>
       <c r="Q10" s="2">
-        <v>0.5991393735161512</v>
+        <v>0.5962974751618334</v>
       </c>
       <c r="R10" s="2">
-        <v>0.1781077787529703</v>
+        <v>0.1790284476818534</v>
       </c>
       <c r="S10" s="2">
-        <v>1.347426895188685</v>
+        <v>1.346510245473203</v>
       </c>
       <c r="T10" s="2">
-        <v>0.2340798179609642</v>
+        <v>0.2340797711025001</v>
       </c>
       <c r="U10" s="2">
-        <v>1.249551913334694</v>
+        <v>1.249551901643145</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="3" customFormat="1">
@@ -1189,22 +1189,22 @@
         <v>0.1181142656994044</v>
       </c>
       <c r="P11" s="3">
-        <v>0.1434984853044898</v>
+        <v>0.14328651417766</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.3364171721037157</v>
+        <v>0.3362269797239298</v>
       </c>
       <c r="R11" s="3">
-        <v>0.0009631928586580701</v>
+        <v>0.0009646390862442004</v>
       </c>
       <c r="S11" s="3">
-        <v>0.255338915736973</v>
+        <v>0.2548289831718226</v>
       </c>
       <c r="T11" s="3">
-        <v>0.0001387130736508046</v>
+        <v>0.0001387130000064089</v>
       </c>
       <c r="U11" s="3">
-        <v>0.2564753741715639</v>
+        <v>0.2564755472855793</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="2" customFormat="1">
@@ -1254,22 +1254,22 @@
         <v>0.1354055892860333</v>
       </c>
       <c r="P12" s="2">
-        <v>1.318059551970325</v>
+        <v>1.311097789796539</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.4537665522382115</v>
+        <v>0.4514431168005566</v>
       </c>
       <c r="R12" s="2">
-        <v>0.1784094620679704</v>
+        <v>0.1793556356172296</v>
       </c>
       <c r="S12" s="2">
-        <v>1.295662586723902</v>
+        <v>1.296064864780603</v>
       </c>
       <c r="T12" s="2">
-        <v>0.2343682381076229</v>
+        <v>0.2343681912243217</v>
       </c>
       <c r="U12" s="2">
-        <v>1.283193429135786</v>
+        <v>1.283193381054588</v>
       </c>
     </row>
   </sheetData>
